--- a/INTLINE/data/134/DEUSTATIS/Producer price index for industrial products - GP4 codes - 2016.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Producer price index for industrial products - GP4 codes - 2016.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="487">
   <si>
     <t>Producer price index for industrial products: Germany,
 months, product classification (GP2009 2-/3-/4-/5-/6-/
@@ -1474,7 +1474,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 04:01:55</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:40:38</t>
   </si>
 </sst>
 </file>
@@ -4112,11 +4112,11 @@
       <c r="BX7" t="n" s="10">
         <v>115.5</v>
       </c>
-      <c r="BY7" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ7" t="s" s="10">
-        <v>26</v>
+      <c r="BY7" t="n" s="10">
+        <v>118.9</v>
+      </c>
+      <c r="BZ7" t="n" s="10">
+        <v>109.2</v>
       </c>
       <c r="CA7" t="s" s="10">
         <v>26</v>
@@ -4372,11 +4372,11 @@
       <c r="BX8" t="n" s="10">
         <v>173.1</v>
       </c>
-      <c r="BY8" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ8" t="s" s="10">
-        <v>26</v>
+      <c r="BY8" t="n" s="10">
+        <v>201.2</v>
+      </c>
+      <c r="BZ8" t="n" s="10">
+        <v>211.6</v>
       </c>
       <c r="CA8" t="s" s="10">
         <v>26</v>
@@ -4632,11 +4632,11 @@
       <c r="BX9" t="n" s="10">
         <v>304.7</v>
       </c>
-      <c r="BY9" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ9" t="s" s="10">
-        <v>26</v>
+      <c r="BY9" t="n" s="10">
+        <v>315.0</v>
+      </c>
+      <c r="BZ9" t="n" s="10">
+        <v>358.6</v>
       </c>
       <c r="CA9" t="s" s="10">
         <v>26</v>
@@ -4892,11 +4892,11 @@
       <c r="BX10" t="n" s="10">
         <v>124.9</v>
       </c>
-      <c r="BY10" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ10" t="s" s="10">
-        <v>26</v>
+      <c r="BY10" t="n" s="10">
+        <v>126.2</v>
+      </c>
+      <c r="BZ10" t="n" s="10">
+        <v>128.0</v>
       </c>
       <c r="CA10" t="s" s="10">
         <v>26</v>
@@ -5152,11 +5152,11 @@
       <c r="BX11" t="n" s="10">
         <v>130.2</v>
       </c>
-      <c r="BY11" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ11" t="s" s="10">
-        <v>26</v>
+      <c r="BY11" t="n" s="10">
+        <v>130.7</v>
+      </c>
+      <c r="BZ11" t="n" s="10">
+        <v>134.7</v>
       </c>
       <c r="CA11" t="s" s="10">
         <v>26</v>
@@ -5412,11 +5412,11 @@
       <c r="BX12" t="n" s="10">
         <v>106.8</v>
       </c>
-      <c r="BY12" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ12" t="s" s="10">
-        <v>26</v>
+      <c r="BY12" t="n" s="10">
+        <v>107.4</v>
+      </c>
+      <c r="BZ12" t="n" s="10">
+        <v>102.2</v>
       </c>
       <c r="CA12" t="s" s="10">
         <v>26</v>
@@ -5672,11 +5672,11 @@
       <c r="BX13" t="n" s="10">
         <v>111.4</v>
       </c>
-      <c r="BY13" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ13" t="s" s="10">
-        <v>26</v>
+      <c r="BY13" t="n" s="10">
+        <v>131.1</v>
+      </c>
+      <c r="BZ13" t="n" s="10">
+        <v>147.2</v>
       </c>
       <c r="CA13" t="s" s="10">
         <v>26</v>
@@ -5932,11 +5932,11 @@
       <c r="BX14" t="n" s="10">
         <v>109.2</v>
       </c>
-      <c r="BY14" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ14" t="s" s="10">
-        <v>26</v>
+      <c r="BY14" t="n" s="10">
+        <v>114.4</v>
+      </c>
+      <c r="BZ14" t="n" s="10">
+        <v>124.1</v>
       </c>
       <c r="CA14" t="s" s="10">
         <v>26</v>
@@ -6192,11 +6192,11 @@
       <c r="BX15" t="n" s="10">
         <v>110.6</v>
       </c>
-      <c r="BY15" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ15" t="s" s="10">
-        <v>26</v>
+      <c r="BY15" t="n" s="10">
+        <v>112.5</v>
+      </c>
+      <c r="BZ15" t="n" s="10">
+        <v>128.6</v>
       </c>
       <c r="CA15" t="s" s="10">
         <v>26</v>
@@ -6452,11 +6452,11 @@
       <c r="BX16" t="n" s="10">
         <v>117.4</v>
       </c>
-      <c r="BY16" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ16" t="s" s="10">
-        <v>26</v>
+      <c r="BY16" t="n" s="10">
+        <v>118.0</v>
+      </c>
+      <c r="BZ16" t="n" s="10">
+        <v>120.5</v>
       </c>
       <c r="CA16" t="s" s="10">
         <v>26</v>
@@ -6712,11 +6712,11 @@
       <c r="BX17" t="n" s="10">
         <v>108.8</v>
       </c>
-      <c r="BY17" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ17" t="s" s="10">
-        <v>26</v>
+      <c r="BY17" t="n" s="10">
+        <v>110.2</v>
+      </c>
+      <c r="BZ17" t="n" s="10">
+        <v>114.8</v>
       </c>
       <c r="CA17" t="s" s="10">
         <v>26</v>
@@ -6972,11 +6972,11 @@
       <c r="BX18" t="n" s="10">
         <v>118.2</v>
       </c>
-      <c r="BY18" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ18" t="s" s="10">
-        <v>26</v>
+      <c r="BY18" t="n" s="10">
+        <v>118.8</v>
+      </c>
+      <c r="BZ18" t="n" s="10">
+        <v>119.7</v>
       </c>
       <c r="CA18" t="s" s="10">
         <v>26</v>
@@ -7232,11 +7232,11 @@
       <c r="BX19" t="n" s="10">
         <v>115.0</v>
       </c>
-      <c r="BY19" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ19" t="s" s="10">
-        <v>26</v>
+      <c r="BY19" t="n" s="10">
+        <v>115.3</v>
+      </c>
+      <c r="BZ19" t="n" s="10">
+        <v>116.2</v>
       </c>
       <c r="CA19" t="s" s="10">
         <v>26</v>
@@ -7492,11 +7492,11 @@
       <c r="BX20" t="n" s="10">
         <v>168.0</v>
       </c>
-      <c r="BY20" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ20" t="s" s="10">
-        <v>26</v>
+      <c r="BY20" t="n" s="10">
+        <v>200.8</v>
+      </c>
+      <c r="BZ20" t="n" s="10">
+        <v>209.5</v>
       </c>
       <c r="CA20" t="s" s="10">
         <v>26</v>
@@ -7752,11 +7752,11 @@
       <c r="BX21" t="n" s="10">
         <v>124.2</v>
       </c>
-      <c r="BY21" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ21" t="s" s="10">
-        <v>26</v>
+      <c r="BY21" t="n" s="10">
+        <v>133.4</v>
+      </c>
+      <c r="BZ21" t="n" s="10">
+        <v>140.5</v>
       </c>
       <c r="CA21" t="s" s="10">
         <v>26</v>
@@ -8012,11 +8012,11 @@
       <c r="BX22" t="n" s="10">
         <v>128.9</v>
       </c>
-      <c r="BY22" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ22" t="s" s="10">
-        <v>26</v>
+      <c r="BY22" t="n" s="10">
+        <v>131.0</v>
+      </c>
+      <c r="BZ22" t="n" s="10">
+        <v>135.0</v>
       </c>
       <c r="CA22" t="s" s="10">
         <v>26</v>
@@ -8272,11 +8272,11 @@
       <c r="BX23" t="n" s="10">
         <v>103.7</v>
       </c>
-      <c r="BY23" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ23" t="s" s="10">
-        <v>26</v>
+      <c r="BY23" t="n" s="10">
+        <v>105.3</v>
+      </c>
+      <c r="BZ23" t="n" s="10">
+        <v>105.9</v>
       </c>
       <c r="CA23" t="s" s="10">
         <v>26</v>
@@ -8532,11 +8532,11 @@
       <c r="BX24" t="n" s="10">
         <v>117.1</v>
       </c>
-      <c r="BY24" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ24" t="s" s="10">
-        <v>26</v>
+      <c r="BY24" t="n" s="10">
+        <v>126.2</v>
+      </c>
+      <c r="BZ24" t="n" s="10">
+        <v>130.8</v>
       </c>
       <c r="CA24" t="s" s="10">
         <v>26</v>
@@ -8792,11 +8792,11 @@
       <c r="BX25" t="n" s="10">
         <v>146.4</v>
       </c>
-      <c r="BY25" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ25" t="s" s="10">
-        <v>26</v>
+      <c r="BY25" t="n" s="10">
+        <v>154.3</v>
+      </c>
+      <c r="BZ25" t="n" s="10">
+        <v>170.1</v>
       </c>
       <c r="CA25" t="s" s="10">
         <v>26</v>
@@ -9052,11 +9052,11 @@
       <c r="BX26" t="n" s="10">
         <v>122.4</v>
       </c>
-      <c r="BY26" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ26" t="s" s="10">
-        <v>26</v>
+      <c r="BY26" t="n" s="10">
+        <v>122.8</v>
+      </c>
+      <c r="BZ26" t="n" s="10">
+        <v>124.2</v>
       </c>
       <c r="CA26" t="s" s="10">
         <v>26</v>
@@ -9312,11 +9312,11 @@
       <c r="BX27" t="n" s="10">
         <v>114.4</v>
       </c>
-      <c r="BY27" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ27" t="s" s="10">
-        <v>26</v>
+      <c r="BY27" t="n" s="10">
+        <v>114.8</v>
+      </c>
+      <c r="BZ27" t="n" s="10">
+        <v>117.5</v>
       </c>
       <c r="CA27" t="s" s="10">
         <v>26</v>
@@ -9572,11 +9572,11 @@
       <c r="BX28" t="n" s="10">
         <v>119.0</v>
       </c>
-      <c r="BY28" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ28" t="s" s="10">
-        <v>26</v>
+      <c r="BY28" t="n" s="10">
+        <v>119.0</v>
+      </c>
+      <c r="BZ28" t="n" s="10">
+        <v>120.4</v>
       </c>
       <c r="CA28" t="s" s="10">
         <v>26</v>
@@ -9832,11 +9832,11 @@
       <c r="BX29" t="n" s="10">
         <v>104.2</v>
       </c>
-      <c r="BY29" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ29" t="s" s="10">
-        <v>26</v>
+      <c r="BY29" t="n" s="10">
+        <v>104.8</v>
+      </c>
+      <c r="BZ29" t="n" s="10">
+        <v>105.5</v>
       </c>
       <c r="CA29" t="s" s="10">
         <v>26</v>
@@ -10092,11 +10092,11 @@
       <c r="BX30" t="n" s="10">
         <v>110.7</v>
       </c>
-      <c r="BY30" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ30" t="s" s="10">
-        <v>26</v>
+      <c r="BY30" t="n" s="10">
+        <v>111.7</v>
+      </c>
+      <c r="BZ30" t="n" s="10">
+        <v>112.3</v>
       </c>
       <c r="CA30" t="s" s="10">
         <v>26</v>
@@ -10352,11 +10352,11 @@
       <c r="BX31" t="n" s="10">
         <v>110.6</v>
       </c>
-      <c r="BY31" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ31" t="s" s="10">
-        <v>26</v>
+      <c r="BY31" t="n" s="10">
+        <v>113.8</v>
+      </c>
+      <c r="BZ31" t="n" s="10">
+        <v>119.7</v>
       </c>
       <c r="CA31" t="s" s="10">
         <v>26</v>
@@ -10612,11 +10612,11 @@
       <c r="BX32" t="n" s="10">
         <v>106.2</v>
       </c>
-      <c r="BY32" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ32" t="s" s="10">
-        <v>26</v>
+      <c r="BY32" t="n" s="10">
+        <v>107.3</v>
+      </c>
+      <c r="BZ32" t="n" s="10">
+        <v>108.0</v>
       </c>
       <c r="CA32" t="s" s="10">
         <v>26</v>
@@ -10872,11 +10872,11 @@
       <c r="BX33" t="n" s="10">
         <v>105.5</v>
       </c>
-      <c r="BY33" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ33" t="s" s="10">
-        <v>26</v>
+      <c r="BY33" t="n" s="10">
+        <v>105.7</v>
+      </c>
+      <c r="BZ33" t="n" s="10">
+        <v>108.7</v>
       </c>
       <c r="CA33" t="s" s="10">
         <v>26</v>
@@ -11132,11 +11132,11 @@
       <c r="BX34" t="n" s="10">
         <v>115.9</v>
       </c>
-      <c r="BY34" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ34" t="s" s="10">
-        <v>26</v>
+      <c r="BY34" t="n" s="10">
+        <v>115.9</v>
+      </c>
+      <c r="BZ34" t="n" s="10">
+        <v>115.9</v>
       </c>
       <c r="CA34" t="s" s="10">
         <v>26</v>
@@ -11392,11 +11392,11 @@
       <c r="BX35" t="n" s="10">
         <v>109.3</v>
       </c>
-      <c r="BY35" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ35" t="s" s="10">
-        <v>26</v>
+      <c r="BY35" t="n" s="10">
+        <v>110.5</v>
+      </c>
+      <c r="BZ35" t="n" s="10">
+        <v>110.9</v>
       </c>
       <c r="CA35" t="s" s="10">
         <v>26</v>
@@ -11652,11 +11652,11 @@
       <c r="BX36" t="n" s="10">
         <v>140.1</v>
       </c>
-      <c r="BY36" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ36" t="s" s="10">
-        <v>26</v>
+      <c r="BY36" t="n" s="10">
+        <v>166.7</v>
+      </c>
+      <c r="BZ36" t="n" s="10">
+        <v>174.4</v>
       </c>
       <c r="CA36" t="s" s="10">
         <v>26</v>
@@ -11912,11 +11912,11 @@
       <c r="BX37" t="n" s="10">
         <v>114.1</v>
       </c>
-      <c r="BY37" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ37" t="s" s="10">
-        <v>26</v>
+      <c r="BY37" t="n" s="10">
+        <v>115.5</v>
+      </c>
+      <c r="BZ37" t="n" s="10">
+        <v>120.6</v>
       </c>
       <c r="CA37" t="s" s="10">
         <v>26</v>
@@ -12172,11 +12172,11 @@
       <c r="BX38" t="n" s="10">
         <v>107.3</v>
       </c>
-      <c r="BY38" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ38" t="s" s="10">
-        <v>26</v>
+      <c r="BY38" t="n" s="10">
+        <v>108.5</v>
+      </c>
+      <c r="BZ38" t="n" s="10">
+        <v>108.5</v>
       </c>
       <c r="CA38" t="s" s="10">
         <v>26</v>
@@ -12432,11 +12432,11 @@
       <c r="BX39" t="n" s="10">
         <v>101.1</v>
       </c>
-      <c r="BY39" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ39" t="s" s="10">
-        <v>26</v>
+      <c r="BY39" t="n" s="10">
+        <v>101.4</v>
+      </c>
+      <c r="BZ39" t="n" s="10">
+        <v>101.8</v>
       </c>
       <c r="CA39" t="s" s="10">
         <v>26</v>
@@ -12692,11 +12692,11 @@
       <c r="BX40" t="n" s="10">
         <v>111.8</v>
       </c>
-      <c r="BY40" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ40" t="s" s="10">
-        <v>26</v>
+      <c r="BY40" t="n" s="10">
+        <v>112.3</v>
+      </c>
+      <c r="BZ40" t="n" s="10">
+        <v>114.3</v>
       </c>
       <c r="CA40" t="s" s="10">
         <v>26</v>
@@ -12952,11 +12952,11 @@
       <c r="BX41" t="n" s="10">
         <v>139.2</v>
       </c>
-      <c r="BY41" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ41" t="s" s="10">
-        <v>26</v>
+      <c r="BY41" t="n" s="10">
+        <v>148.6</v>
+      </c>
+      <c r="BZ41" t="n" s="10">
+        <v>152.8</v>
       </c>
       <c r="CA41" t="s" s="10">
         <v>26</v>
@@ -13212,11 +13212,11 @@
       <c r="BX42" t="n" s="10">
         <v>114.1</v>
       </c>
-      <c r="BY42" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ42" t="s" s="10">
-        <v>26</v>
+      <c r="BY42" t="n" s="10">
+        <v>115.0</v>
+      </c>
+      <c r="BZ42" t="n" s="10">
+        <v>115.9</v>
       </c>
       <c r="CA42" t="s" s="10">
         <v>26</v>
@@ -13472,11 +13472,11 @@
       <c r="BX43" t="n" s="10">
         <v>119.5</v>
       </c>
-      <c r="BY43" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ43" t="s" s="10">
-        <v>26</v>
+      <c r="BY43" t="n" s="10">
+        <v>119.5</v>
+      </c>
+      <c r="BZ43" t="n" s="10">
+        <v>119.6</v>
       </c>
       <c r="CA43" t="s" s="10">
         <v>26</v>
@@ -13732,11 +13732,11 @@
       <c r="BX44" t="n" s="10">
         <v>114.7</v>
       </c>
-      <c r="BY44" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ44" t="s" s="10">
-        <v>26</v>
+      <c r="BY44" t="n" s="10">
+        <v>117.3</v>
+      </c>
+      <c r="BZ44" t="n" s="10">
+        <v>118.6</v>
       </c>
       <c r="CA44" t="s" s="10">
         <v>26</v>
@@ -13992,11 +13992,11 @@
       <c r="BX45" t="n" s="10">
         <v>109.9</v>
       </c>
-      <c r="BY45" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ45" t="s" s="10">
-        <v>26</v>
+      <c r="BY45" t="n" s="10">
+        <v>111.6</v>
+      </c>
+      <c r="BZ45" t="n" s="10">
+        <v>111.8</v>
       </c>
       <c r="CA45" t="s" s="10">
         <v>26</v>
@@ -14252,11 +14252,11 @@
       <c r="BX46" t="n" s="10">
         <v>110.6</v>
       </c>
-      <c r="BY46" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ46" t="s" s="10">
-        <v>26</v>
+      <c r="BY46" t="n" s="10">
+        <v>111.2</v>
+      </c>
+      <c r="BZ46" t="n" s="10">
+        <v>112.8</v>
       </c>
       <c r="CA46" t="s" s="10">
         <v>26</v>
@@ -14512,11 +14512,11 @@
       <c r="BX47" t="n" s="10">
         <v>106.0</v>
       </c>
-      <c r="BY47" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ47" t="s" s="10">
-        <v>26</v>
+      <c r="BY47" t="n" s="10">
+        <v>110.4</v>
+      </c>
+      <c r="BZ47" t="n" s="10">
+        <v>109.8</v>
       </c>
       <c r="CA47" t="s" s="10">
         <v>26</v>
@@ -14772,11 +14772,11 @@
       <c r="BX48" t="n" s="10">
         <v>113.6</v>
       </c>
-      <c r="BY48" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ48" t="s" s="10">
-        <v>26</v>
+      <c r="BY48" t="n" s="10">
+        <v>113.9</v>
+      </c>
+      <c r="BZ48" t="n" s="10">
+        <v>115.6</v>
       </c>
       <c r="CA48" t="s" s="10">
         <v>26</v>
@@ -15032,11 +15032,11 @@
       <c r="BX49" t="n" s="10">
         <v>110.6</v>
       </c>
-      <c r="BY49" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ49" t="s" s="10">
-        <v>26</v>
+      <c r="BY49" t="n" s="10">
+        <v>110.8</v>
+      </c>
+      <c r="BZ49" t="n" s="10">
+        <v>114.5</v>
       </c>
       <c r="CA49" t="s" s="10">
         <v>26</v>
@@ -15292,11 +15292,11 @@
       <c r="BX50" t="n" s="10">
         <v>119.4</v>
       </c>
-      <c r="BY50" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ50" t="s" s="10">
-        <v>26</v>
+      <c r="BY50" t="n" s="10">
+        <v>122.4</v>
+      </c>
+      <c r="BZ50" t="n" s="10">
+        <v>124.4</v>
       </c>
       <c r="CA50" t="s" s="10">
         <v>26</v>
@@ -15552,11 +15552,11 @@
       <c r="BX51" t="n" s="10">
         <v>108.0</v>
       </c>
-      <c r="BY51" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ51" t="s" s="10">
-        <v>26</v>
+      <c r="BY51" t="n" s="10">
+        <v>108.4</v>
+      </c>
+      <c r="BZ51" t="n" s="10">
+        <v>108.8</v>
       </c>
       <c r="CA51" t="s" s="10">
         <v>26</v>
@@ -15812,11 +15812,11 @@
       <c r="BX52" t="n" s="10">
         <v>116.4</v>
       </c>
-      <c r="BY52" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ52" t="s" s="10">
-        <v>26</v>
+      <c r="BY52" t="n" s="10">
+        <v>117.7</v>
+      </c>
+      <c r="BZ52" t="n" s="10">
+        <v>121.3</v>
       </c>
       <c r="CA52" t="s" s="10">
         <v>26</v>
@@ -16072,11 +16072,11 @@
       <c r="BX53" t="n" s="10">
         <v>99.3</v>
       </c>
-      <c r="BY53" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ53" t="s" s="10">
-        <v>26</v>
+      <c r="BY53" t="n" s="10">
+        <v>99.9</v>
+      </c>
+      <c r="BZ53" t="n" s="10">
+        <v>99.9</v>
       </c>
       <c r="CA53" t="s" s="10">
         <v>26</v>
@@ -16332,11 +16332,11 @@
       <c r="BX54" t="n" s="10">
         <v>118.6</v>
       </c>
-      <c r="BY54" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ54" t="s" s="10">
-        <v>26</v>
+      <c r="BY54" t="n" s="10">
+        <v>119.6</v>
+      </c>
+      <c r="BZ54" t="n" s="10">
+        <v>119.9</v>
       </c>
       <c r="CA54" t="s" s="10">
         <v>26</v>
@@ -16592,11 +16592,11 @@
       <c r="BX55" t="n" s="10">
         <v>103.8</v>
       </c>
-      <c r="BY55" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ55" t="s" s="10">
-        <v>26</v>
+      <c r="BY55" t="n" s="10">
+        <v>103.8</v>
+      </c>
+      <c r="BZ55" t="n" s="10">
+        <v>104.1</v>
       </c>
       <c r="CA55" t="s" s="10">
         <v>26</v>
@@ -16852,11 +16852,11 @@
       <c r="BX56" t="n" s="10">
         <v>111.7</v>
       </c>
-      <c r="BY56" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ56" t="s" s="10">
-        <v>26</v>
+      <c r="BY56" t="n" s="10">
+        <v>112.7</v>
+      </c>
+      <c r="BZ56" t="n" s="10">
+        <v>112.7</v>
       </c>
       <c r="CA56" t="s" s="10">
         <v>26</v>
@@ -17112,11 +17112,11 @@
       <c r="BX57" t="n" s="10">
         <v>108.9</v>
       </c>
-      <c r="BY57" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ57" t="s" s="10">
-        <v>26</v>
+      <c r="BY57" t="n" s="10">
+        <v>108.9</v>
+      </c>
+      <c r="BZ57" t="n" s="10">
+        <v>109.5</v>
       </c>
       <c r="CA57" t="s" s="10">
         <v>26</v>
@@ -17372,11 +17372,11 @@
       <c r="BX58" t="n" s="10">
         <v>108.6</v>
       </c>
-      <c r="BY58" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ58" t="s" s="10">
-        <v>26</v>
+      <c r="BY58" t="n" s="10">
+        <v>108.6</v>
+      </c>
+      <c r="BZ58" t="n" s="10">
+        <v>108.6</v>
       </c>
       <c r="CA58" t="s" s="10">
         <v>26</v>
@@ -17632,11 +17632,11 @@
       <c r="BX59" t="n" s="10">
         <v>104.3</v>
       </c>
-      <c r="BY59" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ59" t="s" s="10">
-        <v>26</v>
+      <c r="BY59" t="n" s="10">
+        <v>104.3</v>
+      </c>
+      <c r="BZ59" t="n" s="10">
+        <v>104.3</v>
       </c>
       <c r="CA59" t="s" s="10">
         <v>26</v>
@@ -17892,11 +17892,11 @@
       <c r="BX60" t="n" s="10">
         <v>100.8</v>
       </c>
-      <c r="BY60" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ60" t="s" s="10">
-        <v>26</v>
+      <c r="BY60" t="n" s="10">
+        <v>100.8</v>
+      </c>
+      <c r="BZ60" t="n" s="10">
+        <v>100.8</v>
       </c>
       <c r="CA60" t="s" s="10">
         <v>26</v>
@@ -18152,11 +18152,11 @@
       <c r="BX61" t="n" s="10">
         <v>107.6</v>
       </c>
-      <c r="BY61" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ61" t="s" s="10">
-        <v>26</v>
+      <c r="BY61" t="n" s="10">
+        <v>107.7</v>
+      </c>
+      <c r="BZ61" t="n" s="10">
+        <v>107.7</v>
       </c>
       <c r="CA61" t="s" s="10">
         <v>26</v>
@@ -18412,11 +18412,11 @@
       <c r="BX62" t="n" s="10">
         <v>110.3</v>
       </c>
-      <c r="BY62" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ62" t="s" s="10">
-        <v>26</v>
+      <c r="BY62" t="n" s="10">
+        <v>111.6</v>
+      </c>
+      <c r="BZ62" t="n" s="10">
+        <v>112.1</v>
       </c>
       <c r="CA62" t="s" s="10">
         <v>26</v>
@@ -18672,11 +18672,11 @@
       <c r="BX63" t="n" s="10">
         <v>160.0</v>
       </c>
-      <c r="BY63" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ63" t="s" s="10">
-        <v>26</v>
+      <c r="BY63" t="n" s="10">
+        <v>171.5</v>
+      </c>
+      <c r="BZ63" t="n" s="10">
+        <v>181.8</v>
       </c>
       <c r="CA63" t="s" s="10">
         <v>26</v>
@@ -18932,11 +18932,11 @@
       <c r="BX64" t="n" s="10">
         <v>139.6</v>
       </c>
-      <c r="BY64" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ64" t="s" s="10">
-        <v>26</v>
+      <c r="BY64" t="n" s="10">
+        <v>141.9</v>
+      </c>
+      <c r="BZ64" t="n" s="10">
+        <v>148.3</v>
       </c>
       <c r="CA64" t="s" s="10">
         <v>26</v>
@@ -19192,11 +19192,11 @@
       <c r="BX65" t="n" s="10">
         <v>115.8</v>
       </c>
-      <c r="BY65" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ65" t="s" s="10">
-        <v>26</v>
+      <c r="BY65" t="n" s="10">
+        <v>122.0</v>
+      </c>
+      <c r="BZ65" t="n" s="10">
+        <v>124.8</v>
       </c>
       <c r="CA65" t="s" s="10">
         <v>26</v>
@@ -19452,11 +19452,11 @@
       <c r="BX66" t="n" s="10">
         <v>131.0</v>
       </c>
-      <c r="BY66" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ66" t="s" s="10">
-        <v>26</v>
+      <c r="BY66" t="n" s="10">
+        <v>133.0</v>
+      </c>
+      <c r="BZ66" t="n" s="10">
+        <v>134.4</v>
       </c>
       <c r="CA66" t="s" s="10">
         <v>26</v>
@@ -19712,11 +19712,11 @@
       <c r="BX67" t="n" s="10">
         <v>182.0</v>
       </c>
-      <c r="BY67" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ67" t="s" s="10">
-        <v>26</v>
+      <c r="BY67" t="n" s="10">
+        <v>195.6</v>
+      </c>
+      <c r="BZ67" t="n" s="10">
+        <v>217.4</v>
       </c>
       <c r="CA67" t="s" s="10">
         <v>26</v>
@@ -19972,11 +19972,11 @@
       <c r="BX68" t="n" s="10">
         <v>149.4</v>
       </c>
-      <c r="BY68" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ68" t="s" s="10">
-        <v>26</v>
+      <c r="BY68" t="n" s="10">
+        <v>153.7</v>
+      </c>
+      <c r="BZ68" t="n" s="10">
+        <v>161.6</v>
       </c>
       <c r="CA68" t="s" s="10">
         <v>26</v>
@@ -20232,11 +20232,11 @@
       <c r="BX69" t="n" s="10">
         <v>124.7</v>
       </c>
-      <c r="BY69" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ69" t="s" s="10">
-        <v>26</v>
+      <c r="BY69" t="n" s="10">
+        <v>126.7</v>
+      </c>
+      <c r="BZ69" t="n" s="10">
+        <v>135.8</v>
       </c>
       <c r="CA69" t="s" s="10">
         <v>26</v>
@@ -20492,11 +20492,11 @@
       <c r="BX70" t="n" s="10">
         <v>144.9</v>
       </c>
-      <c r="BY70" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ70" t="s" s="10">
-        <v>26</v>
+      <c r="BY70" t="n" s="10">
+        <v>148.1</v>
+      </c>
+      <c r="BZ70" t="n" s="10">
+        <v>159.1</v>
       </c>
       <c r="CA70" t="s" s="10">
         <v>26</v>
@@ -20752,11 +20752,11 @@
       <c r="BX71" t="n" s="10">
         <v>127.1</v>
       </c>
-      <c r="BY71" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ71" t="s" s="10">
-        <v>26</v>
+      <c r="BY71" t="n" s="10">
+        <v>129.4</v>
+      </c>
+      <c r="BZ71" t="n" s="10">
+        <v>133.3</v>
       </c>
       <c r="CA71" t="s" s="10">
         <v>26</v>
@@ -21012,11 +21012,11 @@
       <c r="BX72" t="n" s="10">
         <v>107.7</v>
       </c>
-      <c r="BY72" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ72" t="s" s="10">
-        <v>26</v>
+      <c r="BY72" t="n" s="10">
+        <v>109.9</v>
+      </c>
+      <c r="BZ72" t="n" s="10">
+        <v>114.3</v>
       </c>
       <c r="CA72" t="s" s="10">
         <v>26</v>
@@ -21272,11 +21272,11 @@
       <c r="BX73" t="n" s="10">
         <v>127.5</v>
       </c>
-      <c r="BY73" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ73" t="s" s="10">
-        <v>26</v>
+      <c r="BY73" t="n" s="10">
+        <v>129.6</v>
+      </c>
+      <c r="BZ73" t="n" s="10">
+        <v>132.6</v>
       </c>
       <c r="CA73" t="s" s="10">
         <v>26</v>
@@ -21532,11 +21532,11 @@
       <c r="BX74" t="n" s="10">
         <v>127.9</v>
       </c>
-      <c r="BY74" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ74" t="s" s="10">
-        <v>26</v>
+      <c r="BY74" t="n" s="10">
+        <v>131.4</v>
+      </c>
+      <c r="BZ74" t="n" s="10">
+        <v>131.4</v>
       </c>
       <c r="CA74" t="s" s="10">
         <v>26</v>
@@ -21792,11 +21792,11 @@
       <c r="BX75" t="n" s="10">
         <v>122.3</v>
       </c>
-      <c r="BY75" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ75" t="s" s="10">
-        <v>26</v>
+      <c r="BY75" t="n" s="10">
+        <v>122.5</v>
+      </c>
+      <c r="BZ75" t="n" s="10">
+        <v>124.2</v>
       </c>
       <c r="CA75" t="s" s="10">
         <v>26</v>
@@ -22052,11 +22052,11 @@
       <c r="BX76" t="n" s="10">
         <v>132.0</v>
       </c>
-      <c r="BY76" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ76" t="s" s="10">
-        <v>26</v>
+      <c r="BY76" t="n" s="10">
+        <v>135.8</v>
+      </c>
+      <c r="BZ76" t="n" s="10">
+        <v>144.1</v>
       </c>
       <c r="CA76" t="s" s="10">
         <v>26</v>
@@ -22312,11 +22312,11 @@
       <c r="BX77" t="n" s="10">
         <v>107.3</v>
       </c>
-      <c r="BY77" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ77" t="s" s="10">
-        <v>26</v>
+      <c r="BY77" t="n" s="10">
+        <v>110.0</v>
+      </c>
+      <c r="BZ77" t="n" s="10">
+        <v>114.7</v>
       </c>
       <c r="CA77" t="s" s="10">
         <v>26</v>
@@ -22572,11 +22572,11 @@
       <c r="BX78" t="n" s="10">
         <v>105.3</v>
       </c>
-      <c r="BY78" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ78" t="s" s="10">
-        <v>26</v>
+      <c r="BY78" t="n" s="10">
+        <v>105.3</v>
+      </c>
+      <c r="BZ78" t="n" s="10">
+        <v>106.2</v>
       </c>
       <c r="CA78" t="s" s="10">
         <v>26</v>
@@ -22832,11 +22832,11 @@
       <c r="BX79" t="n" s="10">
         <v>106.5</v>
       </c>
-      <c r="BY79" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ79" t="s" s="10">
-        <v>26</v>
+      <c r="BY79" t="n" s="10">
+        <v>106.5</v>
+      </c>
+      <c r="BZ79" t="n" s="10">
+        <v>108.3</v>
       </c>
       <c r="CA79" t="s" s="10">
         <v>26</v>
@@ -23092,11 +23092,11 @@
       <c r="BX80" t="n" s="10">
         <v>114.5</v>
       </c>
-      <c r="BY80" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ80" t="s" s="10">
-        <v>26</v>
+      <c r="BY80" t="n" s="10">
+        <v>120.6</v>
+      </c>
+      <c r="BZ80" t="n" s="10">
+        <v>124.1</v>
       </c>
       <c r="CA80" t="s" s="10">
         <v>26</v>
@@ -23352,11 +23352,11 @@
       <c r="BX81" t="n" s="10">
         <v>149.4</v>
       </c>
-      <c r="BY81" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ81" t="s" s="10">
-        <v>26</v>
+      <c r="BY81" t="n" s="10">
+        <v>165.5</v>
+      </c>
+      <c r="BZ81" t="n" s="10">
+        <v>180.5</v>
       </c>
       <c r="CA81" t="s" s="10">
         <v>26</v>
@@ -23612,11 +23612,11 @@
       <c r="BX82" t="n" s="10">
         <v>141.8</v>
       </c>
-      <c r="BY82" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ82" t="s" s="10">
-        <v>26</v>
+      <c r="BY82" t="n" s="10">
+        <v>178.4</v>
+      </c>
+      <c r="BZ82" t="n" s="10">
+        <v>170.2</v>
       </c>
       <c r="CA82" t="s" s="10">
         <v>26</v>
@@ -23872,11 +23872,11 @@
       <c r="BX83" t="n" s="10">
         <v>141.4</v>
       </c>
-      <c r="BY83" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ83" t="s" s="10">
-        <v>26</v>
+      <c r="BY83" t="n" s="10">
+        <v>149.8</v>
+      </c>
+      <c r="BZ83" t="n" s="10">
+        <v>167.6</v>
       </c>
       <c r="CA83" t="s" s="10">
         <v>26</v>
@@ -24132,11 +24132,11 @@
       <c r="BX84" t="n" s="10">
         <v>125.9</v>
       </c>
-      <c r="BY84" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ84" t="s" s="10">
-        <v>26</v>
+      <c r="BY84" t="n" s="10">
+        <v>126.9</v>
+      </c>
+      <c r="BZ84" t="n" s="10">
+        <v>128.9</v>
       </c>
       <c r="CA84" t="s" s="10">
         <v>26</v>
@@ -24392,11 +24392,11 @@
       <c r="BX85" t="n" s="10">
         <v>128.4</v>
       </c>
-      <c r="BY85" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ85" t="s" s="10">
-        <v>26</v>
+      <c r="BY85" t="n" s="10">
+        <v>131.6</v>
+      </c>
+      <c r="BZ85" t="n" s="10">
+        <v>139.9</v>
       </c>
       <c r="CA85" t="s" s="10">
         <v>26</v>
@@ -24652,11 +24652,11 @@
       <c r="BX86" t="n" s="10">
         <v>135.8</v>
       </c>
-      <c r="BY86" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ86" t="s" s="10">
-        <v>26</v>
+      <c r="BY86" t="n" s="10">
+        <v>137.9</v>
+      </c>
+      <c r="BZ86" t="n" s="10">
+        <v>146.1</v>
       </c>
       <c r="CA86" t="s" s="10">
         <v>26</v>
@@ -24912,11 +24912,11 @@
       <c r="BX87" t="n" s="10">
         <v>168.3</v>
       </c>
-      <c r="BY87" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ87" t="s" s="10">
-        <v>26</v>
+      <c r="BY87" t="n" s="10">
+        <v>190.4</v>
+      </c>
+      <c r="BZ87" t="n" s="10">
+        <v>218.0</v>
       </c>
       <c r="CA87" t="s" s="10">
         <v>26</v>
@@ -25172,11 +25172,11 @@
       <c r="BX88" t="n" s="10">
         <v>132.3</v>
       </c>
-      <c r="BY88" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ88" t="s" s="10">
-        <v>26</v>
+      <c r="BY88" t="n" s="10">
+        <v>136.0</v>
+      </c>
+      <c r="BZ88" t="n" s="10">
+        <v>141.1</v>
       </c>
       <c r="CA88" t="s" s="10">
         <v>26</v>
@@ -25432,11 +25432,11 @@
       <c r="BX89" t="n" s="10">
         <v>134.3</v>
       </c>
-      <c r="BY89" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ89" t="s" s="10">
-        <v>26</v>
+      <c r="BY89" t="n" s="10">
+        <v>135.7</v>
+      </c>
+      <c r="BZ89" t="n" s="10">
+        <v>138.6</v>
       </c>
       <c r="CA89" t="s" s="10">
         <v>26</v>
@@ -25692,11 +25692,11 @@
       <c r="BX90" t="n" s="10">
         <v>115.2</v>
       </c>
-      <c r="BY90" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ90" t="s" s="10">
-        <v>26</v>
+      <c r="BY90" t="n" s="10">
+        <v>115.7</v>
+      </c>
+      <c r="BZ90" t="n" s="10">
+        <v>119.1</v>
       </c>
       <c r="CA90" t="s" s="10">
         <v>26</v>
@@ -25952,11 +25952,11 @@
       <c r="BX91" t="n" s="10">
         <v>119.5</v>
       </c>
-      <c r="BY91" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ91" t="s" s="10">
-        <v>26</v>
+      <c r="BY91" t="n" s="10">
+        <v>120.7</v>
+      </c>
+      <c r="BZ91" t="n" s="10">
+        <v>122.8</v>
       </c>
       <c r="CA91" t="s" s="10">
         <v>26</v>
@@ -26212,11 +26212,11 @@
       <c r="BX92" t="n" s="10">
         <v>119.5</v>
       </c>
-      <c r="BY92" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ92" t="s" s="10">
-        <v>26</v>
+      <c r="BY92" t="n" s="10">
+        <v>121.2</v>
+      </c>
+      <c r="BZ92" t="n" s="10">
+        <v>126.1</v>
       </c>
       <c r="CA92" t="s" s="10">
         <v>26</v>
@@ -26472,11 +26472,11 @@
       <c r="BX93" t="n" s="10">
         <v>107.8</v>
       </c>
-      <c r="BY93" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ93" t="s" s="10">
-        <v>26</v>
+      <c r="BY93" t="n" s="10">
+        <v>108.5</v>
+      </c>
+      <c r="BZ93" t="n" s="10">
+        <v>109.0</v>
       </c>
       <c r="CA93" t="s" s="10">
         <v>26</v>
@@ -26732,11 +26732,11 @@
       <c r="BX94" t="n" s="10">
         <v>92.3</v>
       </c>
-      <c r="BY94" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ94" t="s" s="10">
-        <v>26</v>
+      <c r="BY94" t="n" s="10">
+        <v>92.3</v>
+      </c>
+      <c r="BZ94" t="n" s="10">
+        <v>92.3</v>
       </c>
       <c r="CA94" t="s" s="10">
         <v>26</v>
@@ -26992,11 +26992,11 @@
       <c r="BX95" t="n" s="10">
         <v>124.6</v>
       </c>
-      <c r="BY95" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ95" t="s" s="10">
-        <v>26</v>
+      <c r="BY95" t="n" s="10">
+        <v>123.9</v>
+      </c>
+      <c r="BZ95" t="n" s="10">
+        <v>127.5</v>
       </c>
       <c r="CA95" t="s" s="10">
         <v>26</v>
@@ -27252,11 +27252,11 @@
       <c r="BX96" t="n" s="10">
         <v>122.3</v>
       </c>
-      <c r="BY96" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ96" t="s" s="10">
-        <v>26</v>
+      <c r="BY96" t="n" s="10">
+        <v>122.8</v>
+      </c>
+      <c r="BZ96" t="n" s="10">
+        <v>126.2</v>
       </c>
       <c r="CA96" t="s" s="10">
         <v>26</v>
@@ -27512,11 +27512,11 @@
       <c r="BX97" t="n" s="10">
         <v>142.6</v>
       </c>
-      <c r="BY97" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ97" t="s" s="10">
-        <v>26</v>
+      <c r="BY97" t="n" s="10">
+        <v>146.5</v>
+      </c>
+      <c r="BZ97" t="n" s="10">
+        <v>155.6</v>
       </c>
       <c r="CA97" t="s" s="10">
         <v>26</v>
@@ -27772,11 +27772,11 @@
       <c r="BX98" t="n" s="10">
         <v>118.4</v>
       </c>
-      <c r="BY98" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ98" t="s" s="10">
-        <v>26</v>
+      <c r="BY98" t="n" s="10">
+        <v>119.5</v>
+      </c>
+      <c r="BZ98" t="n" s="10">
+        <v>123.3</v>
       </c>
       <c r="CA98" t="s" s="10">
         <v>26</v>
@@ -28032,11 +28032,11 @@
       <c r="BX99" t="n" s="10">
         <v>118.8</v>
       </c>
-      <c r="BY99" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ99" t="s" s="10">
-        <v>26</v>
+      <c r="BY99" t="n" s="10">
+        <v>119.0</v>
+      </c>
+      <c r="BZ99" t="n" s="10">
+        <v>118.5</v>
       </c>
       <c r="CA99" t="s" s="10">
         <v>26</v>
@@ -28292,11 +28292,11 @@
       <c r="BX100" t="n" s="10">
         <v>106.3</v>
       </c>
-      <c r="BY100" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ100" t="s" s="10">
-        <v>26</v>
+      <c r="BY100" t="n" s="10">
+        <v>106.5</v>
+      </c>
+      <c r="BZ100" t="n" s="10">
+        <v>106.6</v>
       </c>
       <c r="CA100" t="s" s="10">
         <v>26</v>
@@ -28552,11 +28552,11 @@
       <c r="BX101" t="n" s="10">
         <v>116.5</v>
       </c>
-      <c r="BY101" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ101" t="s" s="10">
-        <v>26</v>
+      <c r="BY101" t="n" s="10">
+        <v>118.1</v>
+      </c>
+      <c r="BZ101" t="n" s="10">
+        <v>123.5</v>
       </c>
       <c r="CA101" t="s" s="10">
         <v>26</v>
@@ -28812,11 +28812,11 @@
       <c r="BX102" t="n" s="10">
         <v>113.7</v>
       </c>
-      <c r="BY102" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ102" t="s" s="10">
-        <v>26</v>
+      <c r="BY102" t="n" s="10">
+        <v>114.9</v>
+      </c>
+      <c r="BZ102" t="n" s="10">
+        <v>116.6</v>
       </c>
       <c r="CA102" t="s" s="10">
         <v>26</v>
@@ -29072,11 +29072,11 @@
       <c r="BX103" t="n" s="10">
         <v>125.2</v>
       </c>
-      <c r="BY103" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ103" t="s" s="10">
-        <v>26</v>
+      <c r="BY103" t="n" s="10">
+        <v>127.0</v>
+      </c>
+      <c r="BZ103" t="n" s="10">
+        <v>131.0</v>
       </c>
       <c r="CA103" t="s" s="10">
         <v>26</v>
@@ -29332,11 +29332,11 @@
       <c r="BX104" t="n" s="10">
         <v>117.7</v>
       </c>
-      <c r="BY104" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ104" t="s" s="10">
-        <v>26</v>
+      <c r="BY104" t="n" s="10">
+        <v>118.8</v>
+      </c>
+      <c r="BZ104" t="n" s="10">
+        <v>122.6</v>
       </c>
       <c r="CA104" t="s" s="10">
         <v>26</v>
@@ -29592,11 +29592,11 @@
       <c r="BX105" t="n" s="10">
         <v>128.1</v>
       </c>
-      <c r="BY105" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ105" t="s" s="10">
-        <v>26</v>
+      <c r="BY105" t="n" s="10">
+        <v>129.1</v>
+      </c>
+      <c r="BZ105" t="n" s="10">
+        <v>131.9</v>
       </c>
       <c r="CA105" t="s" s="10">
         <v>26</v>
@@ -29852,11 +29852,11 @@
       <c r="BX106" t="n" s="10">
         <v>107.5</v>
       </c>
-      <c r="BY106" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ106" t="s" s="10">
-        <v>26</v>
+      <c r="BY106" t="n" s="10">
+        <v>107.9</v>
+      </c>
+      <c r="BZ106" t="n" s="10">
+        <v>108.9</v>
       </c>
       <c r="CA106" t="s" s="10">
         <v>26</v>
@@ -30112,11 +30112,11 @@
       <c r="BX107" t="n" s="10">
         <v>155.7</v>
       </c>
-      <c r="BY107" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ107" t="s" s="10">
-        <v>26</v>
+      <c r="BY107" t="n" s="10">
+        <v>160.2</v>
+      </c>
+      <c r="BZ107" t="n" s="10">
+        <v>165.6</v>
       </c>
       <c r="CA107" t="s" s="10">
         <v>26</v>
@@ -30372,11 +30372,11 @@
       <c r="BX108" t="n" s="10">
         <v>125.2</v>
       </c>
-      <c r="BY108" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ108" t="s" s="10">
-        <v>26</v>
+      <c r="BY108" t="n" s="10">
+        <v>125.9</v>
+      </c>
+      <c r="BZ108" t="n" s="10">
+        <v>134.6</v>
       </c>
       <c r="CA108" t="s" s="10">
         <v>26</v>
@@ -30632,11 +30632,11 @@
       <c r="BX109" t="n" s="10">
         <v>115.2</v>
       </c>
-      <c r="BY109" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ109" t="s" s="10">
-        <v>26</v>
+      <c r="BY109" t="n" s="10">
+        <v>118.8</v>
+      </c>
+      <c r="BZ109" t="n" s="10">
+        <v>122.6</v>
       </c>
       <c r="CA109" t="s" s="10">
         <v>26</v>
@@ -30892,11 +30892,11 @@
       <c r="BX110" t="n" s="10">
         <v>113.2</v>
       </c>
-      <c r="BY110" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ110" t="s" s="10">
-        <v>26</v>
+      <c r="BY110" t="n" s="10">
+        <v>116.1</v>
+      </c>
+      <c r="BZ110" t="n" s="10">
+        <v>122.3</v>
       </c>
       <c r="CA110" t="s" s="10">
         <v>26</v>
@@ -31152,11 +31152,11 @@
       <c r="BX111" t="n" s="10">
         <v>108.9</v>
       </c>
-      <c r="BY111" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ111" t="s" s="10">
-        <v>26</v>
+      <c r="BY111" t="n" s="10">
+        <v>109.7</v>
+      </c>
+      <c r="BZ111" t="n" s="10">
+        <v>111.0</v>
       </c>
       <c r="CA111" t="s" s="10">
         <v>26</v>
@@ -31412,11 +31412,11 @@
       <c r="BX112" t="n" s="10">
         <v>118.6</v>
       </c>
-      <c r="BY112" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ112" t="s" s="10">
-        <v>26</v>
+      <c r="BY112" t="n" s="10">
+        <v>119.4</v>
+      </c>
+      <c r="BZ112" t="n" s="10">
+        <v>125.0</v>
       </c>
       <c r="CA112" t="s" s="10">
         <v>26</v>
@@ -31672,11 +31672,11 @@
       <c r="BX113" t="n" s="10">
         <v>110.4</v>
       </c>
-      <c r="BY113" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ113" t="s" s="10">
-        <v>26</v>
+      <c r="BY113" t="n" s="10">
+        <v>114.7</v>
+      </c>
+      <c r="BZ113" t="n" s="10">
+        <v>117.2</v>
       </c>
       <c r="CA113" t="s" s="10">
         <v>26</v>
@@ -31932,11 +31932,11 @@
       <c r="BX114" t="n" s="10">
         <v>116.0</v>
       </c>
-      <c r="BY114" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ114" t="s" s="10">
-        <v>26</v>
+      <c r="BY114" t="n" s="10">
+        <v>117.4</v>
+      </c>
+      <c r="BZ114" t="n" s="10">
+        <v>118.7</v>
       </c>
       <c r="CA114" t="s" s="10">
         <v>26</v>
@@ -32192,11 +32192,11 @@
       <c r="BX115" t="n" s="10">
         <v>115.6</v>
       </c>
-      <c r="BY115" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ115" t="s" s="10">
-        <v>26</v>
+      <c r="BY115" t="n" s="10">
+        <v>117.0</v>
+      </c>
+      <c r="BZ115" t="n" s="10">
+        <v>119.9</v>
       </c>
       <c r="CA115" t="s" s="10">
         <v>26</v>
@@ -32452,11 +32452,11 @@
       <c r="BX116" t="n" s="10">
         <v>130.1</v>
       </c>
-      <c r="BY116" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ116" t="s" s="10">
-        <v>26</v>
+      <c r="BY116" t="n" s="10">
+        <v>130.1</v>
+      </c>
+      <c r="BZ116" t="n" s="10">
+        <v>130.1</v>
       </c>
       <c r="CA116" t="s" s="10">
         <v>26</v>
@@ -32712,11 +32712,11 @@
       <c r="BX117" t="n" s="10">
         <v>107.8</v>
       </c>
-      <c r="BY117" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ117" t="s" s="10">
-        <v>26</v>
+      <c r="BY117" t="n" s="10">
+        <v>107.8</v>
+      </c>
+      <c r="BZ117" t="n" s="10">
+        <v>107.7</v>
       </c>
       <c r="CA117" t="s" s="10">
         <v>26</v>
@@ -32972,11 +32972,11 @@
       <c r="BX118" t="n" s="10">
         <v>116.1</v>
       </c>
-      <c r="BY118" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ118" t="s" s="10">
-        <v>26</v>
+      <c r="BY118" t="n" s="10">
+        <v>117.5</v>
+      </c>
+      <c r="BZ118" t="n" s="10">
+        <v>118.6</v>
       </c>
       <c r="CA118" t="s" s="10">
         <v>26</v>
@@ -33232,11 +33232,11 @@
       <c r="BX119" t="n" s="10">
         <v>115.2</v>
       </c>
-      <c r="BY119" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ119" t="s" s="10">
-        <v>26</v>
+      <c r="BY119" t="n" s="10">
+        <v>115.2</v>
+      </c>
+      <c r="BZ119" t="n" s="10">
+        <v>123.6</v>
       </c>
       <c r="CA119" t="s" s="10">
         <v>26</v>
@@ -33492,11 +33492,11 @@
       <c r="BX120" t="n" s="10">
         <v>141.4</v>
       </c>
-      <c r="BY120" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ120" t="s" s="10">
-        <v>26</v>
+      <c r="BY120" t="n" s="10">
+        <v>141.4</v>
+      </c>
+      <c r="BZ120" t="n" s="10">
+        <v>143.5</v>
       </c>
       <c r="CA120" t="s" s="10">
         <v>26</v>
@@ -33752,11 +33752,11 @@
       <c r="BX121" t="n" s="10">
         <v>128.2</v>
       </c>
-      <c r="BY121" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ121" t="s" s="10">
-        <v>26</v>
+      <c r="BY121" t="n" s="10">
+        <v>130.7</v>
+      </c>
+      <c r="BZ121" t="n" s="10">
+        <v>135.0</v>
       </c>
       <c r="CA121" t="s" s="10">
         <v>26</v>
@@ -34012,11 +34012,11 @@
       <c r="BX122" t="n" s="10">
         <v>129.3</v>
       </c>
-      <c r="BY122" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ122" t="s" s="10">
-        <v>26</v>
+      <c r="BY122" t="n" s="10">
+        <v>130.3</v>
+      </c>
+      <c r="BZ122" t="n" s="10">
+        <v>130.0</v>
       </c>
       <c r="CA122" t="s" s="10">
         <v>26</v>
@@ -34272,11 +34272,11 @@
       <c r="BX123" t="n" s="10">
         <v>124.7</v>
       </c>
-      <c r="BY123" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ123" t="s" s="10">
-        <v>26</v>
+      <c r="BY123" t="n" s="10">
+        <v>127.3</v>
+      </c>
+      <c r="BZ123" t="n" s="10">
+        <v>129.0</v>
       </c>
       <c r="CA123" t="s" s="10">
         <v>26</v>
@@ -34532,11 +34532,11 @@
       <c r="BX124" t="n" s="10">
         <v>113.5</v>
       </c>
-      <c r="BY124" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ124" t="s" s="10">
-        <v>26</v>
+      <c r="BY124" t="n" s="10">
+        <v>115.6</v>
+      </c>
+      <c r="BZ124" t="n" s="10">
+        <v>116.0</v>
       </c>
       <c r="CA124" t="s" s="10">
         <v>26</v>
@@ -34792,11 +34792,11 @@
       <c r="BX125" t="n" s="10">
         <v>112.6</v>
       </c>
-      <c r="BY125" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ125" t="s" s="10">
-        <v>26</v>
+      <c r="BY125" t="n" s="10">
+        <v>113.5</v>
+      </c>
+      <c r="BZ125" t="n" s="10">
+        <v>117.3</v>
       </c>
       <c r="CA125" t="s" s="10">
         <v>26</v>
@@ -35052,11 +35052,11 @@
       <c r="BX126" t="n" s="10">
         <v>115.4</v>
       </c>
-      <c r="BY126" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ126" t="s" s="10">
-        <v>26</v>
+      <c r="BY126" t="n" s="10">
+        <v>116.1</v>
+      </c>
+      <c r="BZ126" t="n" s="10">
+        <v>117.2</v>
       </c>
       <c r="CA126" t="s" s="10">
         <v>26</v>
@@ -35312,11 +35312,11 @@
       <c r="BX127" t="n" s="10">
         <v>112.5</v>
       </c>
-      <c r="BY127" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ127" t="s" s="10">
-        <v>26</v>
+      <c r="BY127" t="n" s="10">
+        <v>113.4</v>
+      </c>
+      <c r="BZ127" t="n" s="10">
+        <v>115.1</v>
       </c>
       <c r="CA127" t="s" s="10">
         <v>26</v>
@@ -35572,11 +35572,11 @@
       <c r="BX128" t="n" s="10">
         <v>113.9</v>
       </c>
-      <c r="BY128" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ128" t="s" s="10">
-        <v>26</v>
+      <c r="BY128" t="n" s="10">
+        <v>114.4</v>
+      </c>
+      <c r="BZ128" t="n" s="10">
+        <v>117.1</v>
       </c>
       <c r="CA128" t="s" s="10">
         <v>26</v>
@@ -35832,11 +35832,11 @@
       <c r="BX129" t="n" s="10">
         <v>118.8</v>
       </c>
-      <c r="BY129" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ129" t="s" s="10">
-        <v>26</v>
+      <c r="BY129" t="n" s="10">
+        <v>121.1</v>
+      </c>
+      <c r="BZ129" t="n" s="10">
+        <v>125.9</v>
       </c>
       <c r="CA129" t="s" s="10">
         <v>26</v>
@@ -36092,11 +36092,11 @@
       <c r="BX130" t="n" s="10">
         <v>175.3</v>
       </c>
-      <c r="BY130" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ130" t="s" s="10">
-        <v>26</v>
+      <c r="BY130" t="n" s="10">
+        <v>192.5</v>
+      </c>
+      <c r="BZ130" t="n" s="10">
+        <v>207.0</v>
       </c>
       <c r="CA130" t="s" s="10">
         <v>26</v>
@@ -36352,11 +36352,11 @@
       <c r="BX131" t="n" s="10">
         <v>143.4</v>
       </c>
-      <c r="BY131" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ131" t="s" s="10">
-        <v>26</v>
+      <c r="BY131" t="n" s="10">
+        <v>151.6</v>
+      </c>
+      <c r="BZ131" t="n" s="10">
+        <v>164.5</v>
       </c>
       <c r="CA131" t="s" s="10">
         <v>26</v>
@@ -36612,11 +36612,11 @@
       <c r="BX132" t="n" s="10">
         <v>176.0</v>
       </c>
-      <c r="BY132" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ132" t="s" s="10">
-        <v>26</v>
+      <c r="BY132" t="n" s="10">
+        <v>181.9</v>
+      </c>
+      <c r="BZ132" t="n" s="10">
+        <v>191.4</v>
       </c>
       <c r="CA132" t="s" s="10">
         <v>26</v>
@@ -36872,11 +36872,11 @@
       <c r="BX133" t="n" s="10">
         <v>166.7</v>
       </c>
-      <c r="BY133" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ133" t="s" s="10">
-        <v>26</v>
+      <c r="BY133" t="n" s="10">
+        <v>169.5</v>
+      </c>
+      <c r="BZ133" t="n" s="10">
+        <v>178.3</v>
       </c>
       <c r="CA133" t="s" s="10">
         <v>26</v>
@@ -37132,11 +37132,11 @@
       <c r="BX134" t="n" s="10">
         <v>182.5</v>
       </c>
-      <c r="BY134" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ134" t="s" s="10">
-        <v>26</v>
+      <c r="BY134" t="n" s="10">
+        <v>181.7</v>
+      </c>
+      <c r="BZ134" t="n" s="10">
+        <v>184.5</v>
       </c>
       <c r="CA134" t="s" s="10">
         <v>26</v>
@@ -37392,11 +37392,11 @@
       <c r="BX135" t="n" s="10">
         <v>159.6</v>
       </c>
-      <c r="BY135" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ135" t="s" s="10">
-        <v>26</v>
+      <c r="BY135" t="n" s="10">
+        <v>161.3</v>
+      </c>
+      <c r="BZ135" t="n" s="10">
+        <v>175.7</v>
       </c>
       <c r="CA135" t="s" s="10">
         <v>26</v>
@@ -37652,11 +37652,11 @@
       <c r="BX136" t="n" s="10">
         <v>143.5</v>
       </c>
-      <c r="BY136" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ136" t="s" s="10">
-        <v>26</v>
+      <c r="BY136" t="n" s="10">
+        <v>153.7</v>
+      </c>
+      <c r="BZ136" t="n" s="10">
+        <v>158.2</v>
       </c>
       <c r="CA136" t="s" s="10">
         <v>26</v>
@@ -37912,11 +37912,11 @@
       <c r="BX137" t="n" s="10">
         <v>140.5</v>
       </c>
-      <c r="BY137" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ137" t="s" s="10">
-        <v>26</v>
+      <c r="BY137" t="n" s="10">
+        <v>148.6</v>
+      </c>
+      <c r="BZ137" t="n" s="10">
+        <v>153.6</v>
       </c>
       <c r="CA137" t="s" s="10">
         <v>26</v>
@@ -38172,11 +38172,11 @@
       <c r="BX138" t="n" s="10">
         <v>149.6</v>
       </c>
-      <c r="BY138" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ138" t="s" s="10">
-        <v>26</v>
+      <c r="BY138" t="n" s="10">
+        <v>159.4</v>
+      </c>
+      <c r="BZ138" t="n" s="10">
+        <v>173.8</v>
       </c>
       <c r="CA138" t="s" s="10">
         <v>26</v>
@@ -38432,11 +38432,11 @@
       <c r="BX139" t="n" s="10">
         <v>157.5</v>
       </c>
-      <c r="BY139" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ139" t="s" s="10">
-        <v>26</v>
+      <c r="BY139" t="n" s="10">
+        <v>161.0</v>
+      </c>
+      <c r="BZ139" t="n" s="10">
+        <v>167.8</v>
       </c>
       <c r="CA139" t="s" s="10">
         <v>26</v>
@@ -38692,11 +38692,11 @@
       <c r="BX140" t="n" s="10">
         <v>116.4</v>
       </c>
-      <c r="BY140" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ140" t="s" s="10">
-        <v>26</v>
+      <c r="BY140" t="n" s="10">
+        <v>119.1</v>
+      </c>
+      <c r="BZ140" t="n" s="10">
+        <v>123.1</v>
       </c>
       <c r="CA140" t="s" s="10">
         <v>26</v>
@@ -38952,11 +38952,11 @@
       <c r="BX141" t="n" s="10">
         <v>118.8</v>
       </c>
-      <c r="BY141" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ141" t="s" s="10">
-        <v>26</v>
+      <c r="BY141" t="n" s="10">
+        <v>119.8</v>
+      </c>
+      <c r="BZ141" t="n" s="10">
+        <v>125.4</v>
       </c>
       <c r="CA141" t="s" s="10">
         <v>26</v>
@@ -39212,11 +39212,11 @@
       <c r="BX142" t="n" s="10">
         <v>116.8</v>
       </c>
-      <c r="BY142" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ142" t="s" s="10">
-        <v>26</v>
+      <c r="BY142" t="n" s="10">
+        <v>118.4</v>
+      </c>
+      <c r="BZ142" t="n" s="10">
+        <v>120.8</v>
       </c>
       <c r="CA142" t="s" s="10">
         <v>26</v>
@@ -39472,11 +39472,11 @@
       <c r="BX143" t="n" s="10">
         <v>111.4</v>
       </c>
-      <c r="BY143" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ143" t="s" s="10">
-        <v>26</v>
+      <c r="BY143" t="n" s="10">
+        <v>112.0</v>
+      </c>
+      <c r="BZ143" t="n" s="10">
+        <v>114.7</v>
       </c>
       <c r="CA143" t="s" s="10">
         <v>26</v>
@@ -39732,11 +39732,11 @@
       <c r="BX144" t="n" s="10">
         <v>132.3</v>
       </c>
-      <c r="BY144" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ144" t="s" s="10">
-        <v>26</v>
+      <c r="BY144" t="n" s="10">
+        <v>136.2</v>
+      </c>
+      <c r="BZ144" t="n" s="10">
+        <v>141.1</v>
       </c>
       <c r="CA144" t="s" s="10">
         <v>26</v>
@@ -39992,11 +39992,11 @@
       <c r="BX145" t="n" s="10">
         <v>134.7</v>
       </c>
-      <c r="BY145" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ145" t="s" s="10">
-        <v>26</v>
+      <c r="BY145" t="n" s="10">
+        <v>140.0</v>
+      </c>
+      <c r="BZ145" t="n" s="10">
+        <v>144.1</v>
       </c>
       <c r="CA145" t="s" s="10">
         <v>26</v>
@@ -40252,11 +40252,11 @@
       <c r="BX146" t="n" s="10">
         <v>126.8</v>
       </c>
-      <c r="BY146" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ146" t="s" s="10">
-        <v>26</v>
+      <c r="BY146" t="n" s="10">
+        <v>127.4</v>
+      </c>
+      <c r="BZ146" t="n" s="10">
+        <v>129.2</v>
       </c>
       <c r="CA146" t="s" s="10">
         <v>26</v>
@@ -40512,11 +40512,11 @@
       <c r="BX147" t="n" s="10">
         <v>119.3</v>
       </c>
-      <c r="BY147" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ147" t="s" s="10">
-        <v>26</v>
+      <c r="BY147" t="n" s="10">
+        <v>120.8</v>
+      </c>
+      <c r="BZ147" t="n" s="10">
+        <v>121.9</v>
       </c>
       <c r="CA147" t="s" s="10">
         <v>26</v>
@@ -40772,11 +40772,11 @@
       <c r="BX148" t="n" s="10">
         <v>134.1</v>
       </c>
-      <c r="BY148" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ148" t="s" s="10">
-        <v>26</v>
+      <c r="BY148" t="n" s="10">
+        <v>135.7</v>
+      </c>
+      <c r="BZ148" t="n" s="10">
+        <v>143.5</v>
       </c>
       <c r="CA148" t="s" s="10">
         <v>26</v>
@@ -41032,11 +41032,11 @@
       <c r="BX149" t="n" s="10">
         <v>121.1</v>
       </c>
-      <c r="BY149" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ149" t="s" s="10">
-        <v>26</v>
+      <c r="BY149" t="n" s="10">
+        <v>121.5</v>
+      </c>
+      <c r="BZ149" t="n" s="10">
+        <v>121.5</v>
       </c>
       <c r="CA149" t="s" s="10">
         <v>26</v>
@@ -41292,11 +41292,11 @@
       <c r="BX150" t="n" s="10">
         <v>119.8</v>
       </c>
-      <c r="BY150" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ150" t="s" s="10">
-        <v>26</v>
+      <c r="BY150" t="n" s="10">
+        <v>122.1</v>
+      </c>
+      <c r="BZ150" t="n" s="10">
+        <v>126.5</v>
       </c>
       <c r="CA150" t="s" s="10">
         <v>26</v>
@@ -41552,11 +41552,11 @@
       <c r="BX151" t="n" s="10">
         <v>114.8</v>
       </c>
-      <c r="BY151" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ151" t="s" s="10">
-        <v>26</v>
+      <c r="BY151" t="n" s="10">
+        <v>116.7</v>
+      </c>
+      <c r="BZ151" t="n" s="10">
+        <v>120.7</v>
       </c>
       <c r="CA151" t="s" s="10">
         <v>26</v>
@@ -41812,11 +41812,11 @@
       <c r="BX152" t="n" s="10">
         <v>116.3</v>
       </c>
-      <c r="BY152" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ152" t="s" s="10">
-        <v>26</v>
+      <c r="BY152" t="n" s="10">
+        <v>116.5</v>
+      </c>
+      <c r="BZ152" t="n" s="10">
+        <v>117.7</v>
       </c>
       <c r="CA152" t="s" s="10">
         <v>26</v>
@@ -42072,11 +42072,11 @@
       <c r="BX153" t="n" s="10">
         <v>117.1</v>
       </c>
-      <c r="BY153" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ153" t="s" s="10">
-        <v>26</v>
+      <c r="BY153" t="n" s="10">
+        <v>117.1</v>
+      </c>
+      <c r="BZ153" t="n" s="10">
+        <v>117.8</v>
       </c>
       <c r="CA153" t="s" s="10">
         <v>26</v>
@@ -42332,11 +42332,11 @@
       <c r="BX154" t="n" s="10">
         <v>112.5</v>
       </c>
-      <c r="BY154" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ154" t="s" s="10">
-        <v>26</v>
+      <c r="BY154" t="n" s="10">
+        <v>113.4</v>
+      </c>
+      <c r="BZ154" t="n" s="10">
+        <v>114.0</v>
       </c>
       <c r="CA154" t="s" s="10">
         <v>26</v>
@@ -42592,11 +42592,11 @@
       <c r="BX155" t="n" s="10">
         <v>111.1</v>
       </c>
-      <c r="BY155" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ155" t="s" s="10">
-        <v>26</v>
+      <c r="BY155" t="n" s="10">
+        <v>111.5</v>
+      </c>
+      <c r="BZ155" t="n" s="10">
+        <v>112.2</v>
       </c>
       <c r="CA155" t="s" s="10">
         <v>26</v>
@@ -42852,11 +42852,11 @@
       <c r="BX156" t="n" s="10">
         <v>143.9</v>
       </c>
-      <c r="BY156" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ156" t="s" s="10">
-        <v>26</v>
+      <c r="BY156" t="n" s="10">
+        <v>144.3</v>
+      </c>
+      <c r="BZ156" t="n" s="10">
+        <v>147.1</v>
       </c>
       <c r="CA156" t="s" s="10">
         <v>26</v>
@@ -43112,11 +43112,11 @@
       <c r="BX157" t="n" s="10">
         <v>128.6</v>
       </c>
-      <c r="BY157" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ157" t="s" s="10">
-        <v>26</v>
+      <c r="BY157" t="n" s="10">
+        <v>129.8</v>
+      </c>
+      <c r="BZ157" t="n" s="10">
+        <v>133.1</v>
       </c>
       <c r="CA157" t="s" s="10">
         <v>26</v>
@@ -43372,11 +43372,11 @@
       <c r="BX158" t="n" s="10">
         <v>130.1</v>
       </c>
-      <c r="BY158" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ158" t="s" s="10">
-        <v>26</v>
+      <c r="BY158" t="n" s="10">
+        <v>134.0</v>
+      </c>
+      <c r="BZ158" t="n" s="10">
+        <v>138.9</v>
       </c>
       <c r="CA158" t="s" s="10">
         <v>26</v>
@@ -43632,11 +43632,11 @@
       <c r="BX159" t="n" s="10">
         <v>117.5</v>
       </c>
-      <c r="BY159" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ159" t="s" s="10">
-        <v>26</v>
+      <c r="BY159" t="n" s="10">
+        <v>118.1</v>
+      </c>
+      <c r="BZ159" t="n" s="10">
+        <v>120.5</v>
       </c>
       <c r="CA159" t="s" s="10">
         <v>26</v>
@@ -43892,11 +43892,11 @@
       <c r="BX160" t="n" s="10">
         <v>122.2</v>
       </c>
-      <c r="BY160" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ160" t="s" s="10">
-        <v>26</v>
+      <c r="BY160" t="n" s="10">
+        <v>125.4</v>
+      </c>
+      <c r="BZ160" t="n" s="10">
+        <v>131.1</v>
       </c>
       <c r="CA160" t="s" s="10">
         <v>26</v>
@@ -44152,11 +44152,11 @@
       <c r="BX161" t="n" s="10">
         <v>82.0</v>
       </c>
-      <c r="BY161" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ161" t="s" s="10">
-        <v>26</v>
+      <c r="BY161" t="n" s="10">
+        <v>82.7</v>
+      </c>
+      <c r="BZ161" t="n" s="10">
+        <v>82.8</v>
       </c>
       <c r="CA161" t="s" s="10">
         <v>26</v>
@@ -44412,11 +44412,11 @@
       <c r="BX162" t="n" s="10">
         <v>91.6</v>
       </c>
-      <c r="BY162" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ162" t="s" s="10">
-        <v>26</v>
+      <c r="BY162" t="n" s="10">
+        <v>92.9</v>
+      </c>
+      <c r="BZ162" t="n" s="10">
+        <v>92.9</v>
       </c>
       <c r="CA162" t="s" s="10">
         <v>26</v>
@@ -44672,11 +44672,11 @@
       <c r="BX163" t="n" s="10">
         <v>90.9</v>
       </c>
-      <c r="BY163" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ163" t="s" s="10">
-        <v>26</v>
+      <c r="BY163" t="n" s="10">
+        <v>91.6</v>
+      </c>
+      <c r="BZ163" t="n" s="10">
+        <v>91.9</v>
       </c>
       <c r="CA163" t="s" s="10">
         <v>26</v>
@@ -44932,11 +44932,11 @@
       <c r="BX164" t="n" s="10">
         <v>101.6</v>
       </c>
-      <c r="BY164" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ164" t="s" s="10">
-        <v>26</v>
+      <c r="BY164" t="n" s="10">
+        <v>101.7</v>
+      </c>
+      <c r="BZ164" t="n" s="10">
+        <v>102.1</v>
       </c>
       <c r="CA164" t="s" s="10">
         <v>26</v>
@@ -45192,11 +45192,11 @@
       <c r="BX165" t="n" s="10">
         <v>105.6</v>
       </c>
-      <c r="BY165" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ165" t="s" s="10">
-        <v>26</v>
+      <c r="BY165" t="n" s="10">
+        <v>105.8</v>
+      </c>
+      <c r="BZ165" t="n" s="10">
+        <v>107.4</v>
       </c>
       <c r="CA165" t="s" s="10">
         <v>26</v>
@@ -45452,11 +45452,11 @@
       <c r="BX166" t="n" s="10">
         <v>110.6</v>
       </c>
-      <c r="BY166" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ166" t="s" s="10">
-        <v>26</v>
+      <c r="BY166" t="n" s="10">
+        <v>110.9</v>
+      </c>
+      <c r="BZ166" t="n" s="10">
+        <v>111.6</v>
       </c>
       <c r="CA166" t="s" s="10">
         <v>26</v>
@@ -45712,11 +45712,11 @@
       <c r="BX167" t="n" s="10">
         <v>111.3</v>
       </c>
-      <c r="BY167" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ167" t="s" s="10">
-        <v>26</v>
+      <c r="BY167" t="n" s="10">
+        <v>111.8</v>
+      </c>
+      <c r="BZ167" t="n" s="10">
+        <v>115.7</v>
       </c>
       <c r="CA167" t="s" s="10">
         <v>26</v>
@@ -45972,11 +45972,11 @@
       <c r="BX168" t="n" s="10">
         <v>101.1</v>
       </c>
-      <c r="BY168" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ168" t="s" s="10">
-        <v>26</v>
+      <c r="BY168" t="n" s="10">
+        <v>101.1</v>
+      </c>
+      <c r="BZ168" t="n" s="10">
+        <v>101.2</v>
       </c>
       <c r="CA168" t="s" s="10">
         <v>26</v>
@@ -46232,11 +46232,11 @@
       <c r="BX169" t="n" s="10">
         <v>107.1</v>
       </c>
-      <c r="BY169" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ169" t="s" s="10">
-        <v>26</v>
+      <c r="BY169" t="n" s="10">
+        <v>107.1</v>
+      </c>
+      <c r="BZ169" t="n" s="10">
+        <v>107.5</v>
       </c>
       <c r="CA169" t="s" s="10">
         <v>26</v>
@@ -46492,11 +46492,11 @@
       <c r="BX170" t="n" s="10">
         <v>115.4</v>
       </c>
-      <c r="BY170" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ170" t="s" s="10">
-        <v>26</v>
+      <c r="BY170" t="n" s="10">
+        <v>116.4</v>
+      </c>
+      <c r="BZ170" t="n" s="10">
+        <v>118.2</v>
       </c>
       <c r="CA170" t="s" s="10">
         <v>26</v>
@@ -46752,11 +46752,11 @@
       <c r="BX171" t="n" s="10">
         <v>113.9</v>
       </c>
-      <c r="BY171" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ171" t="s" s="10">
-        <v>26</v>
+      <c r="BY171" t="n" s="10">
+        <v>114.6</v>
+      </c>
+      <c r="BZ171" t="n" s="10">
+        <v>115.6</v>
       </c>
       <c r="CA171" t="s" s="10">
         <v>26</v>
@@ -47012,11 +47012,11 @@
       <c r="BX172" t="n" s="10">
         <v>111.0</v>
       </c>
-      <c r="BY172" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ172" t="s" s="10">
-        <v>26</v>
+      <c r="BY172" t="n" s="10">
+        <v>112.3</v>
+      </c>
+      <c r="BZ172" t="n" s="10">
+        <v>114.2</v>
       </c>
       <c r="CA172" t="s" s="10">
         <v>26</v>
@@ -47272,11 +47272,11 @@
       <c r="BX173" t="n" s="10">
         <v>128.2</v>
       </c>
-      <c r="BY173" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ173" t="s" s="10">
-        <v>26</v>
+      <c r="BY173" t="n" s="10">
+        <v>132.9</v>
+      </c>
+      <c r="BZ173" t="n" s="10">
+        <v>137.5</v>
       </c>
       <c r="CA173" t="s" s="10">
         <v>26</v>
@@ -47532,11 +47532,11 @@
       <c r="BX174" t="n" s="10">
         <v>117.0</v>
       </c>
-      <c r="BY174" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ174" t="s" s="10">
-        <v>26</v>
+      <c r="BY174" t="n" s="10">
+        <v>117.3</v>
+      </c>
+      <c r="BZ174" t="n" s="10">
+        <v>118.7</v>
       </c>
       <c r="CA174" t="s" s="10">
         <v>26</v>
@@ -47792,11 +47792,11 @@
       <c r="BX175" t="n" s="10">
         <v>105.5</v>
       </c>
-      <c r="BY175" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ175" t="s" s="10">
-        <v>26</v>
+      <c r="BY175" t="n" s="10">
+        <v>106.1</v>
+      </c>
+      <c r="BZ175" t="n" s="10">
+        <v>106.9</v>
       </c>
       <c r="CA175" t="s" s="10">
         <v>26</v>
@@ -48052,11 +48052,11 @@
       <c r="BX176" t="n" s="10">
         <v>112.2</v>
       </c>
-      <c r="BY176" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ176" t="s" s="10">
-        <v>26</v>
+      <c r="BY176" t="n" s="10">
+        <v>112.6</v>
+      </c>
+      <c r="BZ176" t="n" s="10">
+        <v>114.4</v>
       </c>
       <c r="CA176" t="s" s="10">
         <v>26</v>
@@ -48312,11 +48312,11 @@
       <c r="BX177" t="n" s="10">
         <v>119.8</v>
       </c>
-      <c r="BY177" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ177" t="s" s="10">
-        <v>26</v>
+      <c r="BY177" t="n" s="10">
+        <v>120.1</v>
+      </c>
+      <c r="BZ177" t="n" s="10">
+        <v>124.3</v>
       </c>
       <c r="CA177" t="s" s="10">
         <v>26</v>
@@ -48572,11 +48572,11 @@
       <c r="BX178" t="n" s="10">
         <v>109.1</v>
       </c>
-      <c r="BY178" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ178" t="s" s="10">
-        <v>26</v>
+      <c r="BY178" t="n" s="10">
+        <v>109.9</v>
+      </c>
+      <c r="BZ178" t="n" s="10">
+        <v>111.5</v>
       </c>
       <c r="CA178" t="s" s="10">
         <v>26</v>
@@ -48832,11 +48832,11 @@
       <c r="BX179" t="n" s="10">
         <v>108.3</v>
       </c>
-      <c r="BY179" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ179" t="s" s="10">
-        <v>26</v>
+      <c r="BY179" t="n" s="10">
+        <v>108.3</v>
+      </c>
+      <c r="BZ179" t="n" s="10">
+        <v>108.5</v>
       </c>
       <c r="CA179" t="s" s="10">
         <v>26</v>
@@ -49092,11 +49092,11 @@
       <c r="BX180" t="n" s="10">
         <v>111.3</v>
       </c>
-      <c r="BY180" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ180" t="s" s="10">
-        <v>26</v>
+      <c r="BY180" t="n" s="10">
+        <v>111.6</v>
+      </c>
+      <c r="BZ180" t="n" s="10">
+        <v>112.4</v>
       </c>
       <c r="CA180" t="s" s="10">
         <v>26</v>
@@ -49352,11 +49352,11 @@
       <c r="BX181" t="n" s="10">
         <v>113.1</v>
       </c>
-      <c r="BY181" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ181" t="s" s="10">
-        <v>26</v>
+      <c r="BY181" t="n" s="10">
+        <v>113.0</v>
+      </c>
+      <c r="BZ181" t="n" s="10">
+        <v>114.0</v>
       </c>
       <c r="CA181" t="s" s="10">
         <v>26</v>
@@ -49612,11 +49612,11 @@
       <c r="BX182" t="n" s="10">
         <v>121.8</v>
       </c>
-      <c r="BY182" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ182" t="s" s="10">
-        <v>26</v>
+      <c r="BY182" t="n" s="10">
+        <v>121.8</v>
+      </c>
+      <c r="BZ182" t="n" s="10">
+        <v>124.7</v>
       </c>
       <c r="CA182" t="s" s="10">
         <v>26</v>
@@ -49872,11 +49872,11 @@
       <c r="BX183" t="n" s="10">
         <v>111.4</v>
       </c>
-      <c r="BY183" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ183" t="s" s="10">
-        <v>26</v>
+      <c r="BY183" t="n" s="10">
+        <v>112.1</v>
+      </c>
+      <c r="BZ183" t="n" s="10">
+        <v>112.9</v>
       </c>
       <c r="CA183" t="s" s="10">
         <v>26</v>
@@ -50132,11 +50132,11 @@
       <c r="BX184" t="n" s="10">
         <v>114.7</v>
       </c>
-      <c r="BY184" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ184" t="s" s="10">
-        <v>26</v>
+      <c r="BY184" t="n" s="10">
+        <v>115.5</v>
+      </c>
+      <c r="BZ184" t="n" s="10">
+        <v>116.4</v>
       </c>
       <c r="CA184" t="s" s="10">
         <v>26</v>
@@ -50392,11 +50392,11 @@
       <c r="BX185" t="n" s="10">
         <v>117.9</v>
       </c>
-      <c r="BY185" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ185" t="s" s="10">
-        <v>26</v>
+      <c r="BY185" t="n" s="10">
+        <v>119.0</v>
+      </c>
+      <c r="BZ185" t="n" s="10">
+        <v>122.6</v>
       </c>
       <c r="CA185" t="s" s="10">
         <v>26</v>
@@ -50652,11 +50652,11 @@
       <c r="BX186" t="n" s="10">
         <v>103.3</v>
       </c>
-      <c r="BY186" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ186" t="s" s="10">
-        <v>26</v>
+      <c r="BY186" t="n" s="10">
+        <v>104.3</v>
+      </c>
+      <c r="BZ186" t="n" s="10">
+        <v>104.9</v>
       </c>
       <c r="CA186" t="s" s="10">
         <v>26</v>
@@ -50912,11 +50912,11 @@
       <c r="BX187" t="n" s="10">
         <v>112.9</v>
       </c>
-      <c r="BY187" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ187" t="s" s="10">
-        <v>26</v>
+      <c r="BY187" t="n" s="10">
+        <v>112.9</v>
+      </c>
+      <c r="BZ187" t="n" s="10">
+        <v>113.9</v>
       </c>
       <c r="CA187" t="s" s="10">
         <v>26</v>
@@ -51172,11 +51172,11 @@
       <c r="BX188" t="n" s="10">
         <v>113.2</v>
       </c>
-      <c r="BY188" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ188" t="s" s="10">
-        <v>26</v>
+      <c r="BY188" t="n" s="10">
+        <v>113.4</v>
+      </c>
+      <c r="BZ188" t="n" s="10">
+        <v>115.6</v>
       </c>
       <c r="CA188" t="s" s="10">
         <v>26</v>
@@ -51432,11 +51432,11 @@
       <c r="BX189" t="n" s="10">
         <v>113.9</v>
       </c>
-      <c r="BY189" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ189" t="s" s="10">
-        <v>26</v>
+      <c r="BY189" t="n" s="10">
+        <v>114.2</v>
+      </c>
+      <c r="BZ189" t="n" s="10">
+        <v>114.9</v>
       </c>
       <c r="CA189" t="s" s="10">
         <v>26</v>
@@ -51692,11 +51692,11 @@
       <c r="BX190" t="n" s="10">
         <v>121.6</v>
       </c>
-      <c r="BY190" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ190" t="s" s="10">
-        <v>26</v>
+      <c r="BY190" t="n" s="10">
+        <v>121.7</v>
+      </c>
+      <c r="BZ190" t="n" s="10">
+        <v>123.4</v>
       </c>
       <c r="CA190" t="s" s="10">
         <v>26</v>
@@ -51952,11 +51952,11 @@
       <c r="BX191" t="n" s="10">
         <v>113.5</v>
       </c>
-      <c r="BY191" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ191" t="s" s="10">
-        <v>26</v>
+      <c r="BY191" t="n" s="10">
+        <v>113.7</v>
+      </c>
+      <c r="BZ191" t="n" s="10">
+        <v>115.6</v>
       </c>
       <c r="CA191" t="s" s="10">
         <v>26</v>
@@ -52212,11 +52212,11 @@
       <c r="BX192" t="n" s="10">
         <v>119.7</v>
       </c>
-      <c r="BY192" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ192" t="s" s="10">
-        <v>26</v>
+      <c r="BY192" t="n" s="10">
+        <v>119.7</v>
+      </c>
+      <c r="BZ192" t="n" s="10">
+        <v>121.7</v>
       </c>
       <c r="CA192" t="s" s="10">
         <v>26</v>
@@ -52472,11 +52472,11 @@
       <c r="BX193" t="n" s="10">
         <v>117.7</v>
       </c>
-      <c r="BY193" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ193" t="s" s="10">
-        <v>26</v>
+      <c r="BY193" t="n" s="10">
+        <v>119.0</v>
+      </c>
+      <c r="BZ193" t="n" s="10">
+        <v>119.0</v>
       </c>
       <c r="CA193" t="s" s="10">
         <v>26</v>
@@ -52732,11 +52732,11 @@
       <c r="BX194" t="n" s="10">
         <v>114.9</v>
       </c>
-      <c r="BY194" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ194" t="s" s="10">
-        <v>26</v>
+      <c r="BY194" t="n" s="10">
+        <v>115.4</v>
+      </c>
+      <c r="BZ194" t="n" s="10">
+        <v>117.4</v>
       </c>
       <c r="CA194" t="s" s="10">
         <v>26</v>
@@ -52992,11 +52992,11 @@
       <c r="BX195" t="n" s="10">
         <v>113.8</v>
       </c>
-      <c r="BY195" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ195" t="s" s="10">
-        <v>26</v>
+      <c r="BY195" t="n" s="10">
+        <v>114.3</v>
+      </c>
+      <c r="BZ195" t="n" s="10">
+        <v>116.0</v>
       </c>
       <c r="CA195" t="s" s="10">
         <v>26</v>
@@ -53252,11 +53252,11 @@
       <c r="BX196" t="n" s="10">
         <v>113.3</v>
       </c>
-      <c r="BY196" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ196" t="s" s="10">
-        <v>26</v>
+      <c r="BY196" t="n" s="10">
+        <v>113.7</v>
+      </c>
+      <c r="BZ196" t="n" s="10">
+        <v>114.9</v>
       </c>
       <c r="CA196" t="s" s="10">
         <v>26</v>
@@ -53512,11 +53512,11 @@
       <c r="BX197" t="n" s="10">
         <v>114.3</v>
       </c>
-      <c r="BY197" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ197" t="s" s="10">
-        <v>26</v>
+      <c r="BY197" t="n" s="10">
+        <v>115.7</v>
+      </c>
+      <c r="BZ197" t="n" s="10">
+        <v>116.5</v>
       </c>
       <c r="CA197" t="s" s="10">
         <v>26</v>
@@ -53772,11 +53772,11 @@
       <c r="BX198" t="n" s="10">
         <v>114.5</v>
       </c>
-      <c r="BY198" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ198" t="s" s="10">
-        <v>26</v>
+      <c r="BY198" t="n" s="10">
+        <v>114.6</v>
+      </c>
+      <c r="BZ198" t="n" s="10">
+        <v>116.4</v>
       </c>
       <c r="CA198" t="s" s="10">
         <v>26</v>
@@ -54032,11 +54032,11 @@
       <c r="BX199" t="n" s="10">
         <v>111.3</v>
       </c>
-      <c r="BY199" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ199" t="s" s="10">
-        <v>26</v>
+      <c r="BY199" t="n" s="10">
+        <v>111.7</v>
+      </c>
+      <c r="BZ199" t="n" s="10">
+        <v>113.0</v>
       </c>
       <c r="CA199" t="s" s="10">
         <v>26</v>
@@ -54292,11 +54292,11 @@
       <c r="BX200" t="n" s="10">
         <v>110.0</v>
       </c>
-      <c r="BY200" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ200" t="s" s="10">
-        <v>26</v>
+      <c r="BY200" t="n" s="10">
+        <v>110.2</v>
+      </c>
+      <c r="BZ200" t="n" s="10">
+        <v>111.1</v>
       </c>
       <c r="CA200" t="s" s="10">
         <v>26</v>
@@ -54552,11 +54552,11 @@
       <c r="BX201" t="n" s="10">
         <v>116.4</v>
       </c>
-      <c r="BY201" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ201" t="s" s="10">
-        <v>26</v>
+      <c r="BY201" t="n" s="10">
+        <v>116.8</v>
+      </c>
+      <c r="BZ201" t="n" s="10">
+        <v>119.1</v>
       </c>
       <c r="CA201" t="s" s="10">
         <v>26</v>
@@ -54812,11 +54812,11 @@
       <c r="BX202" t="n" s="10">
         <v>104.0</v>
       </c>
-      <c r="BY202" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ202" t="s" s="10">
-        <v>26</v>
+      <c r="BY202" t="n" s="10">
+        <v>104.0</v>
+      </c>
+      <c r="BZ202" t="n" s="10">
+        <v>105.3</v>
       </c>
       <c r="CA202" t="s" s="10">
         <v>26</v>
@@ -55072,11 +55072,11 @@
       <c r="BX203" t="n" s="10">
         <v>105.3</v>
       </c>
-      <c r="BY203" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ203" t="s" s="10">
-        <v>26</v>
+      <c r="BY203" t="n" s="10">
+        <v>105.3</v>
+      </c>
+      <c r="BZ203" t="n" s="10">
+        <v>106.8</v>
       </c>
       <c r="CA203" t="s" s="10">
         <v>26</v>
@@ -55332,11 +55332,11 @@
       <c r="BX204" t="n" s="10">
         <v>107.7</v>
       </c>
-      <c r="BY204" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ204" t="s" s="10">
-        <v>26</v>
+      <c r="BY204" t="n" s="10">
+        <v>107.8</v>
+      </c>
+      <c r="BZ204" t="n" s="10">
+        <v>108.6</v>
       </c>
       <c r="CA204" t="s" s="10">
         <v>26</v>
@@ -55592,11 +55592,11 @@
       <c r="BX205" t="n" s="10">
         <v>108.5</v>
       </c>
-      <c r="BY205" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ205" t="s" s="10">
-        <v>26</v>
+      <c r="BY205" t="n" s="10">
+        <v>110.7</v>
+      </c>
+      <c r="BZ205" t="n" s="10">
+        <v>110.3</v>
       </c>
       <c r="CA205" t="s" s="10">
         <v>26</v>
@@ -55852,11 +55852,11 @@
       <c r="BX206" t="n" s="10">
         <v>116.3</v>
       </c>
-      <c r="BY206" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ206" t="s" s="10">
-        <v>26</v>
+      <c r="BY206" t="n" s="10">
+        <v>116.3</v>
+      </c>
+      <c r="BZ206" t="n" s="10">
+        <v>116.9</v>
       </c>
       <c r="CA206" t="s" s="10">
         <v>26</v>
@@ -56112,11 +56112,11 @@
       <c r="BX207" t="n" s="10">
         <v>118.6</v>
       </c>
-      <c r="BY207" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ207" t="s" s="10">
-        <v>26</v>
+      <c r="BY207" t="n" s="10">
+        <v>118.6</v>
+      </c>
+      <c r="BZ207" t="n" s="10">
+        <v>118.6</v>
       </c>
       <c r="CA207" t="s" s="10">
         <v>26</v>
@@ -56372,11 +56372,11 @@
       <c r="BX208" t="n" s="10">
         <v>116.1</v>
       </c>
-      <c r="BY208" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ208" t="s" s="10">
-        <v>26</v>
+      <c r="BY208" t="n" s="10">
+        <v>117.4</v>
+      </c>
+      <c r="BZ208" t="n" s="10">
+        <v>119.5</v>
       </c>
       <c r="CA208" t="s" s="10">
         <v>26</v>
@@ -56632,11 +56632,11 @@
       <c r="BX209" t="n" s="10">
         <v>116.2</v>
       </c>
-      <c r="BY209" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ209" t="s" s="10">
-        <v>26</v>
+      <c r="BY209" t="n" s="10">
+        <v>117.9</v>
+      </c>
+      <c r="BZ209" t="n" s="10">
+        <v>118.4</v>
       </c>
       <c r="CA209" t="s" s="10">
         <v>26</v>
@@ -56892,11 +56892,11 @@
       <c r="BX210" t="n" s="10">
         <v>116.1</v>
       </c>
-      <c r="BY210" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ210" t="s" s="10">
-        <v>26</v>
+      <c r="BY210" t="n" s="10">
+        <v>116.6</v>
+      </c>
+      <c r="BZ210" t="n" s="10">
+        <v>116.6</v>
       </c>
       <c r="CA210" t="s" s="10">
         <v>26</v>
@@ -57152,11 +57152,11 @@
       <c r="BX211" t="n" s="10">
         <v>119.3</v>
       </c>
-      <c r="BY211" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ211" t="s" s="10">
-        <v>26</v>
+      <c r="BY211" t="n" s="10">
+        <v>120.5</v>
+      </c>
+      <c r="BZ211" t="n" s="10">
+        <v>121.7</v>
       </c>
       <c r="CA211" t="s" s="10">
         <v>26</v>
@@ -57412,11 +57412,11 @@
       <c r="BX212" t="n" s="10">
         <v>123.2</v>
       </c>
-      <c r="BY212" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ212" t="s" s="10">
-        <v>26</v>
+      <c r="BY212" t="n" s="10">
+        <v>124.2</v>
+      </c>
+      <c r="BZ212" t="n" s="10">
+        <v>127.6</v>
       </c>
       <c r="CA212" t="s" s="10">
         <v>26</v>
@@ -57672,11 +57672,11 @@
       <c r="BX213" t="n" s="10">
         <v>130.7</v>
       </c>
-      <c r="BY213" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ213" t="s" s="10">
-        <v>26</v>
+      <c r="BY213" t="n" s="10">
+        <v>136.9</v>
+      </c>
+      <c r="BZ213" t="n" s="10">
+        <v>138.8</v>
       </c>
       <c r="CA213" t="s" s="10">
         <v>26</v>
@@ -57932,11 +57932,11 @@
       <c r="BX214" t="n" s="10">
         <v>126.3</v>
       </c>
-      <c r="BY214" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ214" t="s" s="10">
-        <v>26</v>
+      <c r="BY214" t="n" s="10">
+        <v>126.3</v>
+      </c>
+      <c r="BZ214" t="n" s="10">
+        <v>128.7</v>
       </c>
       <c r="CA214" t="s" s="10">
         <v>26</v>
@@ -58192,11 +58192,11 @@
       <c r="BX215" t="n" s="10">
         <v>119.6</v>
       </c>
-      <c r="BY215" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ215" t="s" s="10">
-        <v>26</v>
+      <c r="BY215" t="n" s="10">
+        <v>119.6</v>
+      </c>
+      <c r="BZ215" t="n" s="10">
+        <v>124.0</v>
       </c>
       <c r="CA215" t="s" s="10">
         <v>26</v>
@@ -58452,11 +58452,11 @@
       <c r="BX216" t="n" s="10">
         <v>111.9</v>
       </c>
-      <c r="BY216" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ216" t="s" s="10">
-        <v>26</v>
+      <c r="BY216" t="n" s="10">
+        <v>112.5</v>
+      </c>
+      <c r="BZ216" t="n" s="10">
+        <v>113.6</v>
       </c>
       <c r="CA216" t="s" s="10">
         <v>26</v>
@@ -58712,11 +58712,11 @@
       <c r="BX217" t="n" s="10">
         <v>110.1</v>
       </c>
-      <c r="BY217" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ217" t="s" s="10">
-        <v>26</v>
+      <c r="BY217" t="n" s="10">
+        <v>110.4</v>
+      </c>
+      <c r="BZ217" t="n" s="10">
+        <v>110.8</v>
       </c>
       <c r="CA217" t="s" s="10">
         <v>26</v>
@@ -58972,11 +58972,11 @@
       <c r="BX218" t="n" s="10">
         <v>106.6</v>
       </c>
-      <c r="BY218" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ218" t="s" s="10">
-        <v>26</v>
+      <c r="BY218" t="n" s="10">
+        <v>106.6</v>
+      </c>
+      <c r="BZ218" t="n" s="10">
+        <v>107.3</v>
       </c>
       <c r="CA218" t="s" s="10">
         <v>26</v>
@@ -59232,11 +59232,11 @@
       <c r="BX219" t="n" s="10">
         <v>117.3</v>
       </c>
-      <c r="BY219" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ219" t="s" s="10">
-        <v>26</v>
+      <c r="BY219" t="n" s="10">
+        <v>118.8</v>
+      </c>
+      <c r="BZ219" t="n" s="10">
+        <v>120.3</v>
       </c>
       <c r="CA219" t="s" s="10">
         <v>26</v>
@@ -59492,11 +59492,11 @@
       <c r="BX220" t="n" s="10">
         <v>115.4</v>
       </c>
-      <c r="BY220" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ220" t="s" s="10">
-        <v>26</v>
+      <c r="BY220" t="n" s="10">
+        <v>116.2</v>
+      </c>
+      <c r="BZ220" t="n" s="10">
+        <v>117.3</v>
       </c>
       <c r="CA220" t="s" s="10">
         <v>26</v>
@@ -59752,11 +59752,11 @@
       <c r="BX221" t="n" s="10">
         <v>118.9</v>
       </c>
-      <c r="BY221" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ221" t="s" s="10">
-        <v>26</v>
+      <c r="BY221" t="n" s="10">
+        <v>119.4</v>
+      </c>
+      <c r="BZ221" t="n" s="10">
+        <v>119.6</v>
       </c>
       <c r="CA221" t="s" s="10">
         <v>26</v>
@@ -60012,11 +60012,11 @@
       <c r="BX222" t="n" s="10">
         <v>113.7</v>
       </c>
-      <c r="BY222" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ222" t="s" s="10">
-        <v>26</v>
+      <c r="BY222" t="n" s="10">
+        <v>113.7</v>
+      </c>
+      <c r="BZ222" t="n" s="10">
+        <v>114.3</v>
       </c>
       <c r="CA222" t="s" s="10">
         <v>26</v>
@@ -60272,11 +60272,11 @@
       <c r="BX223" t="n" s="10">
         <v>114.1</v>
       </c>
-      <c r="BY223" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ223" t="s" s="10">
-        <v>26</v>
+      <c r="BY223" t="n" s="10">
+        <v>114.0</v>
+      </c>
+      <c r="BZ223" t="n" s="10">
+        <v>114.2</v>
       </c>
       <c r="CA223" t="s" s="10">
         <v>26</v>
@@ -60532,11 +60532,11 @@
       <c r="BX224" t="n" s="10">
         <v>115.5</v>
       </c>
-      <c r="BY224" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ224" t="s" s="10">
-        <v>26</v>
+      <c r="BY224" t="n" s="10">
+        <v>115.5</v>
+      </c>
+      <c r="BZ224" t="n" s="10">
+        <v>116.0</v>
       </c>
       <c r="CA224" t="s" s="10">
         <v>26</v>
@@ -60792,11 +60792,11 @@
       <c r="BX225" t="n" s="10">
         <v>121.3</v>
       </c>
-      <c r="BY225" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ225" t="s" s="10">
-        <v>26</v>
+      <c r="BY225" t="n" s="10">
+        <v>121.6</v>
+      </c>
+      <c r="BZ225" t="n" s="10">
+        <v>121.6</v>
       </c>
       <c r="CA225" t="s" s="10">
         <v>26</v>
@@ -61052,11 +61052,11 @@
       <c r="BX226" t="n" s="10">
         <v>120.5</v>
       </c>
-      <c r="BY226" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ226" t="s" s="10">
-        <v>26</v>
+      <c r="BY226" t="n" s="10">
+        <v>120.5</v>
+      </c>
+      <c r="BZ226" t="n" s="10">
+        <v>119.9</v>
       </c>
       <c r="CA226" t="s" s="10">
         <v>26</v>
@@ -61312,11 +61312,11 @@
       <c r="BX227" t="n" s="10">
         <v>115.8</v>
       </c>
-      <c r="BY227" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ227" t="s" s="10">
-        <v>26</v>
+      <c r="BY227" t="n" s="10">
+        <v>117.6</v>
+      </c>
+      <c r="BZ227" t="n" s="10">
+        <v>117.6</v>
       </c>
       <c r="CA227" t="s" s="10">
         <v>26</v>
@@ -61572,11 +61572,11 @@
       <c r="BX228" t="n" s="10">
         <v>117.7</v>
       </c>
-      <c r="BY228" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ228" t="s" s="10">
-        <v>26</v>
+      <c r="BY228" t="n" s="10">
+        <v>117.7</v>
+      </c>
+      <c r="BZ228" t="n" s="10">
+        <v>118.6</v>
       </c>
       <c r="CA228" t="s" s="10">
         <v>26</v>
@@ -61832,11 +61832,11 @@
       <c r="BX229" t="n" s="10">
         <v>207.3</v>
       </c>
-      <c r="BY229" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ229" t="s" s="10">
-        <v>26</v>
+      <c r="BY229" t="n" s="10">
+        <v>232.1</v>
+      </c>
+      <c r="BZ229" t="n" s="10">
+        <v>237.6</v>
       </c>
       <c r="CA229" t="s" s="10">
         <v>26</v>
@@ -62092,11 +62092,11 @@
       <c r="BX230" t="n" s="10">
         <v>187.4</v>
       </c>
-      <c r="BY230" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ230" t="s" s="10">
-        <v>26</v>
+      <c r="BY230" t="n" s="10">
+        <v>187.4</v>
+      </c>
+      <c r="BZ230" t="n" s="10">
+        <v>187.4</v>
       </c>
       <c r="CA230" t="s" s="10">
         <v>26</v>
@@ -62352,11 +62352,11 @@
       <c r="BX231" t="n" s="10">
         <v>144.1</v>
       </c>
-      <c r="BY231" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ231" t="s" s="10">
-        <v>26</v>
+      <c r="BY231" t="n" s="10">
+        <v>144.1</v>
+      </c>
+      <c r="BZ231" t="n" s="10">
+        <v>144.1</v>
       </c>
       <c r="CA231" t="s" s="10">
         <v>26</v>
@@ -62612,11 +62612,11 @@
       <c r="BX232" t="n" s="10">
         <v>126.8</v>
       </c>
-      <c r="BY232" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ232" t="s" s="10">
-        <v>26</v>
+      <c r="BY232" t="n" s="10">
+        <v>126.8</v>
+      </c>
+      <c r="BZ232" t="n" s="10">
+        <v>126.8</v>
       </c>
       <c r="CA232" t="s" s="10">
         <v>26</v>
@@ -62872,11 +62872,11 @@
       <c r="BX233" t="n" s="10">
         <v>191.6</v>
       </c>
-      <c r="BY233" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ233" t="s" s="10">
-        <v>26</v>
+      <c r="BY233" t="n" s="10">
+        <v>207.8</v>
+      </c>
+      <c r="BZ233" t="n" s="10">
+        <v>217.6</v>
       </c>
       <c r="CA233" t="s" s="10">
         <v>26</v>
@@ -63132,11 +63132,11 @@
       <c r="BX234" t="n" s="10">
         <v>110.4</v>
       </c>
-      <c r="BY234" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ234" t="s" s="10">
-        <v>26</v>
+      <c r="BY234" t="n" s="10">
+        <v>111.7</v>
+      </c>
+      <c r="BZ234" t="n" s="10">
+        <v>119.0</v>
       </c>
       <c r="CA234" t="s" s="10">
         <v>26</v>
@@ -63392,11 +63392,11 @@
       <c r="BX235" t="n" s="10">
         <v>112.5</v>
       </c>
-      <c r="BY235" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ235" t="s" s="10">
-        <v>26</v>
+      <c r="BY235" t="n" s="10">
+        <v>112.6</v>
+      </c>
+      <c r="BZ235" t="n" s="10">
+        <v>112.7</v>
       </c>
       <c r="CA235" t="s" s="10">
         <v>26</v>
@@ -63652,11 +63652,11 @@
       <c r="BX236" t="n" s="10">
         <v>195.0</v>
       </c>
-      <c r="BY236" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ236" t="s" s="10">
-        <v>26</v>
+      <c r="BY236" t="n" s="10">
+        <v>219.3</v>
+      </c>
+      <c r="BZ236" t="n" s="10">
+        <v>236.8</v>
       </c>
       <c r="CA236" t="s" s="10">
         <v>26</v>
@@ -63710,7 +63710,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 04:02:04&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:40:46&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Producer price index for industrial products - GP4 codes - 2016.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Producer price index for industrial products - GP4 codes - 2016.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="487">
   <si>
     <t>Producer price index for industrial products: Germany,
 months, product classification (GP2009 2-/3-/4-/5-/6-/
@@ -1474,7 +1474,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:40:38</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:51:52</t>
   </si>
 </sst>
 </file>
@@ -4118,8 +4118,8 @@
       <c r="BZ7" t="n" s="10">
         <v>109.2</v>
       </c>
-      <c r="CA7" t="s" s="10">
-        <v>26</v>
+      <c r="CA7" t="n" s="10">
+        <v>108.0</v>
       </c>
       <c r="CB7" t="s" s="10">
         <v>26</v>
@@ -4378,8 +4378,8 @@
       <c r="BZ8" t="n" s="10">
         <v>211.6</v>
       </c>
-      <c r="CA8" t="s" s="10">
-        <v>26</v>
+      <c r="CA8" t="n" s="10">
+        <v>199.4</v>
       </c>
       <c r="CB8" t="s" s="10">
         <v>26</v>
@@ -4638,8 +4638,8 @@
       <c r="BZ9" t="n" s="10">
         <v>358.6</v>
       </c>
-      <c r="CA9" t="s" s="10">
-        <v>26</v>
+      <c r="CA9" t="n" s="10">
+        <v>303.5</v>
       </c>
       <c r="CB9" t="s" s="10">
         <v>26</v>
@@ -4898,8 +4898,8 @@
       <c r="BZ10" t="n" s="10">
         <v>128.0</v>
       </c>
-      <c r="CA10" t="s" s="10">
-        <v>26</v>
+      <c r="CA10" t="n" s="10">
+        <v>134.5</v>
       </c>
       <c r="CB10" t="s" s="10">
         <v>26</v>
@@ -5158,8 +5158,8 @@
       <c r="BZ11" t="n" s="10">
         <v>134.7</v>
       </c>
-      <c r="CA11" t="s" s="10">
-        <v>26</v>
+      <c r="CA11" t="n" s="10">
+        <v>135.5</v>
       </c>
       <c r="CB11" t="s" s="10">
         <v>26</v>
@@ -5418,8 +5418,8 @@
       <c r="BZ12" t="n" s="10">
         <v>102.2</v>
       </c>
-      <c r="CA12" t="s" s="10">
-        <v>26</v>
+      <c r="CA12" t="n" s="10">
+        <v>102.3</v>
       </c>
       <c r="CB12" t="s" s="10">
         <v>26</v>
@@ -5678,8 +5678,8 @@
       <c r="BZ13" t="n" s="10">
         <v>147.2</v>
       </c>
-      <c r="CA13" t="s" s="10">
-        <v>26</v>
+      <c r="CA13" t="n" s="10">
+        <v>144.8</v>
       </c>
       <c r="CB13" t="s" s="10">
         <v>26</v>
@@ -5938,8 +5938,8 @@
       <c r="BZ14" t="n" s="10">
         <v>124.1</v>
       </c>
-      <c r="CA14" t="s" s="10">
-        <v>26</v>
+      <c r="CA14" t="n" s="10">
+        <v>130.2</v>
       </c>
       <c r="CB14" t="s" s="10">
         <v>26</v>
@@ -6198,8 +6198,8 @@
       <c r="BZ15" t="n" s="10">
         <v>128.6</v>
       </c>
-      <c r="CA15" t="s" s="10">
-        <v>26</v>
+      <c r="CA15" t="n" s="10">
+        <v>131.5</v>
       </c>
       <c r="CB15" t="s" s="10">
         <v>26</v>
@@ -6458,8 +6458,8 @@
       <c r="BZ16" t="n" s="10">
         <v>120.5</v>
       </c>
-      <c r="CA16" t="s" s="10">
-        <v>26</v>
+      <c r="CA16" t="n" s="10">
+        <v>123.3</v>
       </c>
       <c r="CB16" t="s" s="10">
         <v>26</v>
@@ -6718,8 +6718,8 @@
       <c r="BZ17" t="n" s="10">
         <v>114.8</v>
       </c>
-      <c r="CA17" t="s" s="10">
-        <v>26</v>
+      <c r="CA17" t="n" s="10">
+        <v>114.4</v>
       </c>
       <c r="CB17" t="s" s="10">
         <v>26</v>
@@ -6978,8 +6978,8 @@
       <c r="BZ18" t="n" s="10">
         <v>119.7</v>
       </c>
-      <c r="CA18" t="s" s="10">
-        <v>26</v>
+      <c r="CA18" t="n" s="10">
+        <v>119.5</v>
       </c>
       <c r="CB18" t="s" s="10">
         <v>26</v>
@@ -7238,8 +7238,8 @@
       <c r="BZ19" t="n" s="10">
         <v>116.2</v>
       </c>
-      <c r="CA19" t="s" s="10">
-        <v>26</v>
+      <c r="CA19" t="n" s="10">
+        <v>116.9</v>
       </c>
       <c r="CB19" t="s" s="10">
         <v>26</v>
@@ -7498,8 +7498,8 @@
       <c r="BZ20" t="n" s="10">
         <v>209.5</v>
       </c>
-      <c r="CA20" t="s" s="10">
-        <v>26</v>
+      <c r="CA20" t="n" s="10">
+        <v>217.0</v>
       </c>
       <c r="CB20" t="s" s="10">
         <v>26</v>
@@ -7758,8 +7758,8 @@
       <c r="BZ21" t="n" s="10">
         <v>140.5</v>
       </c>
-      <c r="CA21" t="s" s="10">
-        <v>26</v>
+      <c r="CA21" t="n" s="10">
+        <v>142.8</v>
       </c>
       <c r="CB21" t="s" s="10">
         <v>26</v>
@@ -8018,8 +8018,8 @@
       <c r="BZ22" t="n" s="10">
         <v>135.0</v>
       </c>
-      <c r="CA22" t="s" s="10">
-        <v>26</v>
+      <c r="CA22" t="n" s="10">
+        <v>139.8</v>
       </c>
       <c r="CB22" t="s" s="10">
         <v>26</v>
@@ -8278,8 +8278,8 @@
       <c r="BZ23" t="n" s="10">
         <v>105.9</v>
       </c>
-      <c r="CA23" t="s" s="10">
-        <v>26</v>
+      <c r="CA23" t="n" s="10">
+        <v>105.3</v>
       </c>
       <c r="CB23" t="s" s="10">
         <v>26</v>
@@ -8538,8 +8538,8 @@
       <c r="BZ24" t="n" s="10">
         <v>130.8</v>
       </c>
-      <c r="CA24" t="s" s="10">
-        <v>26</v>
+      <c r="CA24" t="n" s="10">
+        <v>134.7</v>
       </c>
       <c r="CB24" t="s" s="10">
         <v>26</v>
@@ -8798,8 +8798,8 @@
       <c r="BZ25" t="n" s="10">
         <v>170.1</v>
       </c>
-      <c r="CA25" t="s" s="10">
-        <v>26</v>
+      <c r="CA25" t="n" s="10">
+        <v>173.5</v>
       </c>
       <c r="CB25" t="s" s="10">
         <v>26</v>
@@ -9058,8 +9058,8 @@
       <c r="BZ26" t="n" s="10">
         <v>124.2</v>
       </c>
-      <c r="CA26" t="s" s="10">
-        <v>26</v>
+      <c r="CA26" t="n" s="10">
+        <v>126.2</v>
       </c>
       <c r="CB26" t="s" s="10">
         <v>26</v>
@@ -9318,8 +9318,8 @@
       <c r="BZ27" t="n" s="10">
         <v>117.5</v>
       </c>
-      <c r="CA27" t="s" s="10">
-        <v>26</v>
+      <c r="CA27" t="n" s="10">
+        <v>119.9</v>
       </c>
       <c r="CB27" t="s" s="10">
         <v>26</v>
@@ -9578,8 +9578,8 @@
       <c r="BZ28" t="n" s="10">
         <v>120.4</v>
       </c>
-      <c r="CA28" t="s" s="10">
-        <v>26</v>
+      <c r="CA28" t="n" s="10">
+        <v>121.2</v>
       </c>
       <c r="CB28" t="s" s="10">
         <v>26</v>
@@ -9838,8 +9838,8 @@
       <c r="BZ29" t="n" s="10">
         <v>105.5</v>
       </c>
-      <c r="CA29" t="s" s="10">
-        <v>26</v>
+      <c r="CA29" t="n" s="10">
+        <v>104.4</v>
       </c>
       <c r="CB29" t="s" s="10">
         <v>26</v>
@@ -10098,8 +10098,8 @@
       <c r="BZ30" t="n" s="10">
         <v>112.3</v>
       </c>
-      <c r="CA30" t="s" s="10">
-        <v>26</v>
+      <c r="CA30" t="n" s="10">
+        <v>112.2</v>
       </c>
       <c r="CB30" t="s" s="10">
         <v>26</v>
@@ -10358,8 +10358,8 @@
       <c r="BZ31" t="n" s="10">
         <v>119.7</v>
       </c>
-      <c r="CA31" t="s" s="10">
-        <v>26</v>
+      <c r="CA31" t="n" s="10">
+        <v>121.6</v>
       </c>
       <c r="CB31" t="s" s="10">
         <v>26</v>
@@ -10618,8 +10618,8 @@
       <c r="BZ32" t="n" s="10">
         <v>108.0</v>
       </c>
-      <c r="CA32" t="s" s="10">
-        <v>26</v>
+      <c r="CA32" t="n" s="10">
+        <v>110.5</v>
       </c>
       <c r="CB32" t="s" s="10">
         <v>26</v>
@@ -10878,8 +10878,8 @@
       <c r="BZ33" t="n" s="10">
         <v>108.7</v>
       </c>
-      <c r="CA33" t="s" s="10">
-        <v>26</v>
+      <c r="CA33" t="n" s="10">
+        <v>111.4</v>
       </c>
       <c r="CB33" t="s" s="10">
         <v>26</v>
@@ -11138,8 +11138,8 @@
       <c r="BZ34" t="n" s="10">
         <v>115.9</v>
       </c>
-      <c r="CA34" t="s" s="10">
-        <v>26</v>
+      <c r="CA34" t="n" s="10">
+        <v>115.7</v>
       </c>
       <c r="CB34" t="s" s="10">
         <v>26</v>
@@ -11398,8 +11398,8 @@
       <c r="BZ35" t="n" s="10">
         <v>110.9</v>
       </c>
-      <c r="CA35" t="s" s="10">
-        <v>26</v>
+      <c r="CA35" t="n" s="10">
+        <v>112.3</v>
       </c>
       <c r="CB35" t="s" s="10">
         <v>26</v>
@@ -11658,8 +11658,8 @@
       <c r="BZ36" t="n" s="10">
         <v>174.4</v>
       </c>
-      <c r="CA36" t="s" s="10">
-        <v>26</v>
+      <c r="CA36" t="n" s="10">
+        <v>177.8</v>
       </c>
       <c r="CB36" t="s" s="10">
         <v>26</v>
@@ -11918,8 +11918,8 @@
       <c r="BZ37" t="n" s="10">
         <v>120.6</v>
       </c>
-      <c r="CA37" t="s" s="10">
-        <v>26</v>
+      <c r="CA37" t="n" s="10">
+        <v>124.2</v>
       </c>
       <c r="CB37" t="s" s="10">
         <v>26</v>
@@ -12178,8 +12178,8 @@
       <c r="BZ38" t="n" s="10">
         <v>108.5</v>
       </c>
-      <c r="CA38" t="s" s="10">
-        <v>26</v>
+      <c r="CA38" t="n" s="10">
+        <v>109.1</v>
       </c>
       <c r="CB38" t="s" s="10">
         <v>26</v>
@@ -12438,8 +12438,8 @@
       <c r="BZ39" t="n" s="10">
         <v>101.8</v>
       </c>
-      <c r="CA39" t="s" s="10">
-        <v>26</v>
+      <c r="CA39" t="n" s="10">
+        <v>101.0</v>
       </c>
       <c r="CB39" t="s" s="10">
         <v>26</v>
@@ -12698,8 +12698,8 @@
       <c r="BZ40" t="n" s="10">
         <v>114.3</v>
       </c>
-      <c r="CA40" t="s" s="10">
-        <v>26</v>
+      <c r="CA40" t="n" s="10">
+        <v>115.4</v>
       </c>
       <c r="CB40" t="s" s="10">
         <v>26</v>
@@ -12958,8 +12958,8 @@
       <c r="BZ41" t="n" s="10">
         <v>152.8</v>
       </c>
-      <c r="CA41" t="s" s="10">
-        <v>26</v>
+      <c r="CA41" t="n" s="10">
+        <v>159.5</v>
       </c>
       <c r="CB41" t="s" s="10">
         <v>26</v>
@@ -13218,8 +13218,8 @@
       <c r="BZ42" t="n" s="10">
         <v>115.9</v>
       </c>
-      <c r="CA42" t="s" s="10">
-        <v>26</v>
+      <c r="CA42" t="n" s="10">
+        <v>116.3</v>
       </c>
       <c r="CB42" t="s" s="10">
         <v>26</v>
@@ -13478,8 +13478,8 @@
       <c r="BZ43" t="n" s="10">
         <v>119.6</v>
       </c>
-      <c r="CA43" t="s" s="10">
-        <v>26</v>
+      <c r="CA43" t="n" s="10">
+        <v>119.6</v>
       </c>
       <c r="CB43" t="s" s="10">
         <v>26</v>
@@ -13738,8 +13738,8 @@
       <c r="BZ44" t="n" s="10">
         <v>118.6</v>
       </c>
-      <c r="CA44" t="s" s="10">
-        <v>26</v>
+      <c r="CA44" t="n" s="10">
+        <v>120.4</v>
       </c>
       <c r="CB44" t="s" s="10">
         <v>26</v>
@@ -13998,8 +13998,8 @@
       <c r="BZ45" t="n" s="10">
         <v>111.8</v>
       </c>
-      <c r="CA45" t="s" s="10">
-        <v>26</v>
+      <c r="CA45" t="n" s="10">
+        <v>112.8</v>
       </c>
       <c r="CB45" t="s" s="10">
         <v>26</v>
@@ -14258,8 +14258,8 @@
       <c r="BZ46" t="n" s="10">
         <v>112.8</v>
       </c>
-      <c r="CA46" t="s" s="10">
-        <v>26</v>
+      <c r="CA46" t="n" s="10">
+        <v>114.9</v>
       </c>
       <c r="CB46" t="s" s="10">
         <v>26</v>
@@ -14518,8 +14518,8 @@
       <c r="BZ47" t="n" s="10">
         <v>109.8</v>
       </c>
-      <c r="CA47" t="s" s="10">
-        <v>26</v>
+      <c r="CA47" t="n" s="10">
+        <v>110.9</v>
       </c>
       <c r="CB47" t="s" s="10">
         <v>26</v>
@@ -14778,8 +14778,8 @@
       <c r="BZ48" t="n" s="10">
         <v>115.6</v>
       </c>
-      <c r="CA48" t="s" s="10">
-        <v>26</v>
+      <c r="CA48" t="n" s="10">
+        <v>116.4</v>
       </c>
       <c r="CB48" t="s" s="10">
         <v>26</v>
@@ -15038,8 +15038,8 @@
       <c r="BZ49" t="n" s="10">
         <v>114.5</v>
       </c>
-      <c r="CA49" t="s" s="10">
-        <v>26</v>
+      <c r="CA49" t="n" s="10">
+        <v>115.6</v>
       </c>
       <c r="CB49" t="s" s="10">
         <v>26</v>
@@ -15298,8 +15298,8 @@
       <c r="BZ50" t="n" s="10">
         <v>124.4</v>
       </c>
-      <c r="CA50" t="s" s="10">
-        <v>26</v>
+      <c r="CA50" t="n" s="10">
+        <v>126.5</v>
       </c>
       <c r="CB50" t="s" s="10">
         <v>26</v>
@@ -15558,8 +15558,8 @@
       <c r="BZ51" t="n" s="10">
         <v>108.8</v>
       </c>
-      <c r="CA51" t="s" s="10">
-        <v>26</v>
+      <c r="CA51" t="n" s="10">
+        <v>109.3</v>
       </c>
       <c r="CB51" t="s" s="10">
         <v>26</v>
@@ -15818,8 +15818,8 @@
       <c r="BZ52" t="n" s="10">
         <v>121.3</v>
       </c>
-      <c r="CA52" t="s" s="10">
-        <v>26</v>
+      <c r="CA52" t="n" s="10">
+        <v>125.1</v>
       </c>
       <c r="CB52" t="s" s="10">
         <v>26</v>
@@ -16078,8 +16078,8 @@
       <c r="BZ53" t="n" s="10">
         <v>99.9</v>
       </c>
-      <c r="CA53" t="s" s="10">
-        <v>26</v>
+      <c r="CA53" t="n" s="10">
+        <v>101.6</v>
       </c>
       <c r="CB53" t="s" s="10">
         <v>26</v>
@@ -16338,8 +16338,8 @@
       <c r="BZ54" t="n" s="10">
         <v>119.9</v>
       </c>
-      <c r="CA54" t="s" s="10">
-        <v>26</v>
+      <c r="CA54" t="n" s="10">
+        <v>120.2</v>
       </c>
       <c r="CB54" t="s" s="10">
         <v>26</v>
@@ -16598,8 +16598,8 @@
       <c r="BZ55" t="n" s="10">
         <v>104.1</v>
       </c>
-      <c r="CA55" t="s" s="10">
-        <v>26</v>
+      <c r="CA55" t="n" s="10">
+        <v>104.1</v>
       </c>
       <c r="CB55" t="s" s="10">
         <v>26</v>
@@ -16858,8 +16858,8 @@
       <c r="BZ56" t="n" s="10">
         <v>112.7</v>
       </c>
-      <c r="CA56" t="s" s="10">
-        <v>26</v>
+      <c r="CA56" t="n" s="10">
+        <v>112.9</v>
       </c>
       <c r="CB56" t="s" s="10">
         <v>26</v>
@@ -17118,8 +17118,8 @@
       <c r="BZ57" t="n" s="10">
         <v>109.5</v>
       </c>
-      <c r="CA57" t="s" s="10">
-        <v>26</v>
+      <c r="CA57" t="n" s="10">
+        <v>110.0</v>
       </c>
       <c r="CB57" t="s" s="10">
         <v>26</v>
@@ -17378,8 +17378,8 @@
       <c r="BZ58" t="n" s="10">
         <v>108.6</v>
       </c>
-      <c r="CA58" t="s" s="10">
-        <v>26</v>
+      <c r="CA58" t="n" s="10">
+        <v>108.6</v>
       </c>
       <c r="CB58" t="s" s="10">
         <v>26</v>
@@ -17638,8 +17638,8 @@
       <c r="BZ59" t="n" s="10">
         <v>104.3</v>
       </c>
-      <c r="CA59" t="s" s="10">
-        <v>26</v>
+      <c r="CA59" t="n" s="10">
+        <v>104.3</v>
       </c>
       <c r="CB59" t="s" s="10">
         <v>26</v>
@@ -17898,8 +17898,8 @@
       <c r="BZ60" t="n" s="10">
         <v>100.8</v>
       </c>
-      <c r="CA60" t="s" s="10">
-        <v>26</v>
+      <c r="CA60" t="n" s="10">
+        <v>100.8</v>
       </c>
       <c r="CB60" t="s" s="10">
         <v>26</v>
@@ -18158,8 +18158,8 @@
       <c r="BZ61" t="n" s="10">
         <v>107.7</v>
       </c>
-      <c r="CA61" t="s" s="10">
-        <v>26</v>
+      <c r="CA61" t="n" s="10">
+        <v>108.0</v>
       </c>
       <c r="CB61" t="s" s="10">
         <v>26</v>
@@ -18418,8 +18418,8 @@
       <c r="BZ62" t="n" s="10">
         <v>112.1</v>
       </c>
-      <c r="CA62" t="s" s="10">
-        <v>26</v>
+      <c r="CA62" t="n" s="10">
+        <v>112.1</v>
       </c>
       <c r="CB62" t="s" s="10">
         <v>26</v>
@@ -18678,8 +18678,8 @@
       <c r="BZ63" t="n" s="10">
         <v>181.8</v>
       </c>
-      <c r="CA63" t="s" s="10">
-        <v>26</v>
+      <c r="CA63" t="n" s="10">
+        <v>191.3</v>
       </c>
       <c r="CB63" t="s" s="10">
         <v>26</v>
@@ -18938,8 +18938,8 @@
       <c r="BZ64" t="n" s="10">
         <v>148.3</v>
       </c>
-      <c r="CA64" t="s" s="10">
-        <v>26</v>
+      <c r="CA64" t="n" s="10">
+        <v>158.3</v>
       </c>
       <c r="CB64" t="s" s="10">
         <v>26</v>
@@ -19198,8 +19198,8 @@
       <c r="BZ65" t="n" s="10">
         <v>124.8</v>
       </c>
-      <c r="CA65" t="s" s="10">
-        <v>26</v>
+      <c r="CA65" t="n" s="10">
+        <v>127.1</v>
       </c>
       <c r="CB65" t="s" s="10">
         <v>26</v>
@@ -19458,8 +19458,8 @@
       <c r="BZ66" t="n" s="10">
         <v>134.4</v>
       </c>
-      <c r="CA66" t="s" s="10">
-        <v>26</v>
+      <c r="CA66" t="n" s="10">
+        <v>136.5</v>
       </c>
       <c r="CB66" t="s" s="10">
         <v>26</v>
@@ -19718,8 +19718,8 @@
       <c r="BZ67" t="n" s="10">
         <v>217.4</v>
       </c>
-      <c r="CA67" t="s" s="10">
-        <v>26</v>
+      <c r="CA67" t="n" s="10">
+        <v>225.3</v>
       </c>
       <c r="CB67" t="s" s="10">
         <v>26</v>
@@ -19978,8 +19978,8 @@
       <c r="BZ68" t="n" s="10">
         <v>161.6</v>
       </c>
-      <c r="CA68" t="s" s="10">
-        <v>26</v>
+      <c r="CA68" t="n" s="10">
+        <v>171.6</v>
       </c>
       <c r="CB68" t="s" s="10">
         <v>26</v>
@@ -20238,8 +20238,8 @@
       <c r="BZ69" t="n" s="10">
         <v>135.8</v>
       </c>
-      <c r="CA69" t="s" s="10">
-        <v>26</v>
+      <c r="CA69" t="n" s="10">
+        <v>139.3</v>
       </c>
       <c r="CB69" t="s" s="10">
         <v>26</v>
@@ -20498,8 +20498,8 @@
       <c r="BZ70" t="n" s="10">
         <v>159.1</v>
       </c>
-      <c r="CA70" t="s" s="10">
-        <v>26</v>
+      <c r="CA70" t="n" s="10">
+        <v>163.0</v>
       </c>
       <c r="CB70" t="s" s="10">
         <v>26</v>
@@ -20758,8 +20758,8 @@
       <c r="BZ71" t="n" s="10">
         <v>133.3</v>
       </c>
-      <c r="CA71" t="s" s="10">
-        <v>26</v>
+      <c r="CA71" t="n" s="10">
+        <v>137.3</v>
       </c>
       <c r="CB71" t="s" s="10">
         <v>26</v>
@@ -21018,8 +21018,8 @@
       <c r="BZ72" t="n" s="10">
         <v>114.3</v>
       </c>
-      <c r="CA72" t="s" s="10">
-        <v>26</v>
+      <c r="CA72" t="n" s="10">
+        <v>116.8</v>
       </c>
       <c r="CB72" t="s" s="10">
         <v>26</v>
@@ -21278,8 +21278,8 @@
       <c r="BZ73" t="n" s="10">
         <v>132.6</v>
       </c>
-      <c r="CA73" t="s" s="10">
-        <v>26</v>
+      <c r="CA73" t="n" s="10">
+        <v>143.7</v>
       </c>
       <c r="CB73" t="s" s="10">
         <v>26</v>
@@ -21538,8 +21538,8 @@
       <c r="BZ74" t="n" s="10">
         <v>131.4</v>
       </c>
-      <c r="CA74" t="s" s="10">
-        <v>26</v>
+      <c r="CA74" t="n" s="10">
+        <v>131.4</v>
       </c>
       <c r="CB74" t="s" s="10">
         <v>26</v>
@@ -21798,8 +21798,8 @@
       <c r="BZ75" t="n" s="10">
         <v>124.2</v>
       </c>
-      <c r="CA75" t="s" s="10">
-        <v>26</v>
+      <c r="CA75" t="n" s="10">
+        <v>127.4</v>
       </c>
       <c r="CB75" t="s" s="10">
         <v>26</v>
@@ -22058,8 +22058,8 @@
       <c r="BZ76" t="n" s="10">
         <v>144.1</v>
       </c>
-      <c r="CA76" t="s" s="10">
-        <v>26</v>
+      <c r="CA76" t="n" s="10">
+        <v>149.4</v>
       </c>
       <c r="CB76" t="s" s="10">
         <v>26</v>
@@ -22318,8 +22318,8 @@
       <c r="BZ77" t="n" s="10">
         <v>114.7</v>
       </c>
-      <c r="CA77" t="s" s="10">
-        <v>26</v>
+      <c r="CA77" t="n" s="10">
+        <v>117.2</v>
       </c>
       <c r="CB77" t="s" s="10">
         <v>26</v>
@@ -22578,8 +22578,8 @@
       <c r="BZ78" t="n" s="10">
         <v>106.2</v>
       </c>
-      <c r="CA78" t="s" s="10">
-        <v>26</v>
+      <c r="CA78" t="n" s="10">
+        <v>106.7</v>
       </c>
       <c r="CB78" t="s" s="10">
         <v>26</v>
@@ -22838,8 +22838,8 @@
       <c r="BZ79" t="n" s="10">
         <v>108.3</v>
       </c>
-      <c r="CA79" t="s" s="10">
-        <v>26</v>
+      <c r="CA79" t="n" s="10">
+        <v>109.5</v>
       </c>
       <c r="CB79" t="s" s="10">
         <v>26</v>
@@ -23098,8 +23098,8 @@
       <c r="BZ80" t="n" s="10">
         <v>124.1</v>
       </c>
-      <c r="CA80" t="s" s="10">
-        <v>26</v>
+      <c r="CA80" t="n" s="10">
+        <v>124.1</v>
       </c>
       <c r="CB80" t="s" s="10">
         <v>26</v>
@@ -23358,8 +23358,8 @@
       <c r="BZ81" t="n" s="10">
         <v>180.5</v>
       </c>
-      <c r="CA81" t="s" s="10">
-        <v>26</v>
+      <c r="CA81" t="n" s="10">
+        <v>197.1</v>
       </c>
       <c r="CB81" t="s" s="10">
         <v>26</v>
@@ -23618,8 +23618,8 @@
       <c r="BZ82" t="n" s="10">
         <v>170.2</v>
       </c>
-      <c r="CA82" t="s" s="10">
-        <v>26</v>
+      <c r="CA82" t="n" s="10">
+        <v>174.5</v>
       </c>
       <c r="CB82" t="s" s="10">
         <v>26</v>
@@ -23878,8 +23878,8 @@
       <c r="BZ83" t="n" s="10">
         <v>167.6</v>
       </c>
-      <c r="CA83" t="s" s="10">
-        <v>26</v>
+      <c r="CA83" t="n" s="10">
+        <v>173.4</v>
       </c>
       <c r="CB83" t="s" s="10">
         <v>26</v>
@@ -24138,8 +24138,8 @@
       <c r="BZ84" t="n" s="10">
         <v>128.9</v>
       </c>
-      <c r="CA84" t="s" s="10">
-        <v>26</v>
+      <c r="CA84" t="n" s="10">
+        <v>133.1</v>
       </c>
       <c r="CB84" t="s" s="10">
         <v>26</v>
@@ -24398,8 +24398,8 @@
       <c r="BZ85" t="n" s="10">
         <v>139.9</v>
       </c>
-      <c r="CA85" t="s" s="10">
-        <v>26</v>
+      <c r="CA85" t="n" s="10">
+        <v>144.7</v>
       </c>
       <c r="CB85" t="s" s="10">
         <v>26</v>
@@ -24658,8 +24658,8 @@
       <c r="BZ86" t="n" s="10">
         <v>146.1</v>
       </c>
-      <c r="CA86" t="s" s="10">
-        <v>26</v>
+      <c r="CA86" t="n" s="10">
+        <v>150.8</v>
       </c>
       <c r="CB86" t="s" s="10">
         <v>26</v>
@@ -24918,8 +24918,8 @@
       <c r="BZ87" t="n" s="10">
         <v>218.0</v>
       </c>
-      <c r="CA87" t="s" s="10">
-        <v>26</v>
+      <c r="CA87" t="n" s="10">
+        <v>220.6</v>
       </c>
       <c r="CB87" t="s" s="10">
         <v>26</v>
@@ -25178,8 +25178,8 @@
       <c r="BZ88" t="n" s="10">
         <v>141.1</v>
       </c>
-      <c r="CA88" t="s" s="10">
-        <v>26</v>
+      <c r="CA88" t="n" s="10">
+        <v>145.6</v>
       </c>
       <c r="CB88" t="s" s="10">
         <v>26</v>
@@ -25438,8 +25438,8 @@
       <c r="BZ89" t="n" s="10">
         <v>138.6</v>
       </c>
-      <c r="CA89" t="s" s="10">
-        <v>26</v>
+      <c r="CA89" t="n" s="10">
+        <v>147.1</v>
       </c>
       <c r="CB89" t="s" s="10">
         <v>26</v>
@@ -25698,8 +25698,8 @@
       <c r="BZ90" t="n" s="10">
         <v>119.1</v>
       </c>
-      <c r="CA90" t="s" s="10">
-        <v>26</v>
+      <c r="CA90" t="n" s="10">
+        <v>120.6</v>
       </c>
       <c r="CB90" t="s" s="10">
         <v>26</v>
@@ -25958,8 +25958,8 @@
       <c r="BZ91" t="n" s="10">
         <v>122.8</v>
       </c>
-      <c r="CA91" t="s" s="10">
-        <v>26</v>
+      <c r="CA91" t="n" s="10">
+        <v>123.9</v>
       </c>
       <c r="CB91" t="s" s="10">
         <v>26</v>
@@ -26218,8 +26218,8 @@
       <c r="BZ92" t="n" s="10">
         <v>126.1</v>
       </c>
-      <c r="CA92" t="s" s="10">
-        <v>26</v>
+      <c r="CA92" t="n" s="10">
+        <v>130.1</v>
       </c>
       <c r="CB92" t="s" s="10">
         <v>26</v>
@@ -26478,8 +26478,8 @@
       <c r="BZ93" t="n" s="10">
         <v>109.0</v>
       </c>
-      <c r="CA93" t="s" s="10">
-        <v>26</v>
+      <c r="CA93" t="n" s="10">
+        <v>110.2</v>
       </c>
       <c r="CB93" t="s" s="10">
         <v>26</v>
@@ -26738,8 +26738,8 @@
       <c r="BZ94" t="n" s="10">
         <v>92.3</v>
       </c>
-      <c r="CA94" t="s" s="10">
-        <v>26</v>
+      <c r="CA94" t="n" s="10">
+        <v>92.3</v>
       </c>
       <c r="CB94" t="s" s="10">
         <v>26</v>
@@ -26998,8 +26998,8 @@
       <c r="BZ95" t="n" s="10">
         <v>127.5</v>
       </c>
-      <c r="CA95" t="s" s="10">
-        <v>26</v>
+      <c r="CA95" t="n" s="10">
+        <v>129.3</v>
       </c>
       <c r="CB95" t="s" s="10">
         <v>26</v>
@@ -27258,8 +27258,8 @@
       <c r="BZ96" t="n" s="10">
         <v>126.2</v>
       </c>
-      <c r="CA96" t="s" s="10">
-        <v>26</v>
+      <c r="CA96" t="n" s="10">
+        <v>126.6</v>
       </c>
       <c r="CB96" t="s" s="10">
         <v>26</v>
@@ -27518,8 +27518,8 @@
       <c r="BZ97" t="n" s="10">
         <v>155.6</v>
       </c>
-      <c r="CA97" t="s" s="10">
-        <v>26</v>
+      <c r="CA97" t="n" s="10">
+        <v>160.0</v>
       </c>
       <c r="CB97" t="s" s="10">
         <v>26</v>
@@ -27778,8 +27778,8 @@
       <c r="BZ98" t="n" s="10">
         <v>123.3</v>
       </c>
-      <c r="CA98" t="s" s="10">
-        <v>26</v>
+      <c r="CA98" t="n" s="10">
+        <v>126.9</v>
       </c>
       <c r="CB98" t="s" s="10">
         <v>26</v>
@@ -28038,8 +28038,8 @@
       <c r="BZ99" t="n" s="10">
         <v>118.5</v>
       </c>
-      <c r="CA99" t="s" s="10">
-        <v>26</v>
+      <c r="CA99" t="n" s="10">
+        <v>118.6</v>
       </c>
       <c r="CB99" t="s" s="10">
         <v>26</v>
@@ -28298,8 +28298,8 @@
       <c r="BZ100" t="n" s="10">
         <v>106.6</v>
       </c>
-      <c r="CA100" t="s" s="10">
-        <v>26</v>
+      <c r="CA100" t="n" s="10">
+        <v>106.8</v>
       </c>
       <c r="CB100" t="s" s="10">
         <v>26</v>
@@ -28558,8 +28558,8 @@
       <c r="BZ101" t="n" s="10">
         <v>123.5</v>
       </c>
-      <c r="CA101" t="s" s="10">
-        <v>26</v>
+      <c r="CA101" t="n" s="10">
+        <v>129.6</v>
       </c>
       <c r="CB101" t="s" s="10">
         <v>26</v>
@@ -28818,8 +28818,8 @@
       <c r="BZ102" t="n" s="10">
         <v>116.6</v>
       </c>
-      <c r="CA102" t="s" s="10">
-        <v>26</v>
+      <c r="CA102" t="n" s="10">
+        <v>118.5</v>
       </c>
       <c r="CB102" t="s" s="10">
         <v>26</v>
@@ -29078,8 +29078,8 @@
       <c r="BZ103" t="n" s="10">
         <v>131.0</v>
       </c>
-      <c r="CA103" t="s" s="10">
-        <v>26</v>
+      <c r="CA103" t="n" s="10">
+        <v>133.8</v>
       </c>
       <c r="CB103" t="s" s="10">
         <v>26</v>
@@ -29338,8 +29338,8 @@
       <c r="BZ104" t="n" s="10">
         <v>122.6</v>
       </c>
-      <c r="CA104" t="s" s="10">
-        <v>26</v>
+      <c r="CA104" t="n" s="10">
+        <v>125.4</v>
       </c>
       <c r="CB104" t="s" s="10">
         <v>26</v>
@@ -29598,8 +29598,8 @@
       <c r="BZ105" t="n" s="10">
         <v>131.9</v>
       </c>
-      <c r="CA105" t="s" s="10">
-        <v>26</v>
+      <c r="CA105" t="n" s="10">
+        <v>135.5</v>
       </c>
       <c r="CB105" t="s" s="10">
         <v>26</v>
@@ -29858,8 +29858,8 @@
       <c r="BZ106" t="n" s="10">
         <v>108.9</v>
       </c>
-      <c r="CA106" t="s" s="10">
-        <v>26</v>
+      <c r="CA106" t="n" s="10">
+        <v>109.8</v>
       </c>
       <c r="CB106" t="s" s="10">
         <v>26</v>
@@ -30118,8 +30118,8 @@
       <c r="BZ107" t="n" s="10">
         <v>165.6</v>
       </c>
-      <c r="CA107" t="s" s="10">
-        <v>26</v>
+      <c r="CA107" t="n" s="10">
+        <v>183.3</v>
       </c>
       <c r="CB107" t="s" s="10">
         <v>26</v>
@@ -30378,8 +30378,8 @@
       <c r="BZ108" t="n" s="10">
         <v>134.6</v>
       </c>
-      <c r="CA108" t="s" s="10">
-        <v>26</v>
+      <c r="CA108" t="n" s="10">
+        <v>135.6</v>
       </c>
       <c r="CB108" t="s" s="10">
         <v>26</v>
@@ -30638,8 +30638,8 @@
       <c r="BZ109" t="n" s="10">
         <v>122.6</v>
       </c>
-      <c r="CA109" t="s" s="10">
-        <v>26</v>
+      <c r="CA109" t="n" s="10">
+        <v>122.9</v>
       </c>
       <c r="CB109" t="s" s="10">
         <v>26</v>
@@ -30898,8 +30898,8 @@
       <c r="BZ110" t="n" s="10">
         <v>122.3</v>
       </c>
-      <c r="CA110" t="s" s="10">
-        <v>26</v>
+      <c r="CA110" t="n" s="10">
+        <v>122.2</v>
       </c>
       <c r="CB110" t="s" s="10">
         <v>26</v>
@@ -31158,8 +31158,8 @@
       <c r="BZ111" t="n" s="10">
         <v>111.0</v>
       </c>
-      <c r="CA111" t="s" s="10">
-        <v>26</v>
+      <c r="CA111" t="n" s="10">
+        <v>111.8</v>
       </c>
       <c r="CB111" t="s" s="10">
         <v>26</v>
@@ -31418,8 +31418,8 @@
       <c r="BZ112" t="n" s="10">
         <v>125.0</v>
       </c>
-      <c r="CA112" t="s" s="10">
-        <v>26</v>
+      <c r="CA112" t="n" s="10">
+        <v>126.3</v>
       </c>
       <c r="CB112" t="s" s="10">
         <v>26</v>
@@ -31678,8 +31678,8 @@
       <c r="BZ113" t="n" s="10">
         <v>117.2</v>
       </c>
-      <c r="CA113" t="s" s="10">
-        <v>26</v>
+      <c r="CA113" t="n" s="10">
+        <v>120.9</v>
       </c>
       <c r="CB113" t="s" s="10">
         <v>26</v>
@@ -31938,8 +31938,8 @@
       <c r="BZ114" t="n" s="10">
         <v>118.7</v>
       </c>
-      <c r="CA114" t="s" s="10">
-        <v>26</v>
+      <c r="CA114" t="n" s="10">
+        <v>122.4</v>
       </c>
       <c r="CB114" t="s" s="10">
         <v>26</v>
@@ -32198,8 +32198,8 @@
       <c r="BZ115" t="n" s="10">
         <v>119.9</v>
       </c>
-      <c r="CA115" t="s" s="10">
-        <v>26</v>
+      <c r="CA115" t="n" s="10">
+        <v>122.4</v>
       </c>
       <c r="CB115" t="s" s="10">
         <v>26</v>
@@ -32458,8 +32458,8 @@
       <c r="BZ116" t="n" s="10">
         <v>130.1</v>
       </c>
-      <c r="CA116" t="s" s="10">
-        <v>26</v>
+      <c r="CA116" t="n" s="10">
+        <v>138.2</v>
       </c>
       <c r="CB116" t="s" s="10">
         <v>26</v>
@@ -32718,8 +32718,8 @@
       <c r="BZ117" t="n" s="10">
         <v>107.7</v>
       </c>
-      <c r="CA117" t="s" s="10">
-        <v>26</v>
+      <c r="CA117" t="n" s="10">
+        <v>107.5</v>
       </c>
       <c r="CB117" t="s" s="10">
         <v>26</v>
@@ -32978,8 +32978,8 @@
       <c r="BZ118" t="n" s="10">
         <v>118.6</v>
       </c>
-      <c r="CA118" t="s" s="10">
-        <v>26</v>
+      <c r="CA118" t="n" s="10">
+        <v>117.9</v>
       </c>
       <c r="CB118" t="s" s="10">
         <v>26</v>
@@ -33238,8 +33238,8 @@
       <c r="BZ119" t="n" s="10">
         <v>123.6</v>
       </c>
-      <c r="CA119" t="s" s="10">
-        <v>26</v>
+      <c r="CA119" t="n" s="10">
+        <v>131.6</v>
       </c>
       <c r="CB119" t="s" s="10">
         <v>26</v>
@@ -33498,8 +33498,8 @@
       <c r="BZ120" t="n" s="10">
         <v>143.5</v>
       </c>
-      <c r="CA120" t="s" s="10">
-        <v>26</v>
+      <c r="CA120" t="n" s="10">
+        <v>143.7</v>
       </c>
       <c r="CB120" t="s" s="10">
         <v>26</v>
@@ -33758,8 +33758,8 @@
       <c r="BZ121" t="n" s="10">
         <v>135.0</v>
       </c>
-      <c r="CA121" t="s" s="10">
-        <v>26</v>
+      <c r="CA121" t="n" s="10">
+        <v>137.4</v>
       </c>
       <c r="CB121" t="s" s="10">
         <v>26</v>
@@ -34018,8 +34018,8 @@
       <c r="BZ122" t="n" s="10">
         <v>130.0</v>
       </c>
-      <c r="CA122" t="s" s="10">
-        <v>26</v>
+      <c r="CA122" t="n" s="10">
+        <v>129.6</v>
       </c>
       <c r="CB122" t="s" s="10">
         <v>26</v>
@@ -34278,8 +34278,8 @@
       <c r="BZ123" t="n" s="10">
         <v>129.0</v>
       </c>
-      <c r="CA123" t="s" s="10">
-        <v>26</v>
+      <c r="CA123" t="n" s="10">
+        <v>131.8</v>
       </c>
       <c r="CB123" t="s" s="10">
         <v>26</v>
@@ -34538,8 +34538,8 @@
       <c r="BZ124" t="n" s="10">
         <v>116.0</v>
       </c>
-      <c r="CA124" t="s" s="10">
-        <v>26</v>
+      <c r="CA124" t="n" s="10">
+        <v>118.8</v>
       </c>
       <c r="CB124" t="s" s="10">
         <v>26</v>
@@ -34798,8 +34798,8 @@
       <c r="BZ125" t="n" s="10">
         <v>117.3</v>
       </c>
-      <c r="CA125" t="s" s="10">
-        <v>26</v>
+      <c r="CA125" t="n" s="10">
+        <v>122.0</v>
       </c>
       <c r="CB125" t="s" s="10">
         <v>26</v>
@@ -35058,8 +35058,8 @@
       <c r="BZ126" t="n" s="10">
         <v>117.2</v>
       </c>
-      <c r="CA126" t="s" s="10">
-        <v>26</v>
+      <c r="CA126" t="n" s="10">
+        <v>122.8</v>
       </c>
       <c r="CB126" t="s" s="10">
         <v>26</v>
@@ -35318,8 +35318,8 @@
       <c r="BZ127" t="n" s="10">
         <v>115.1</v>
       </c>
-      <c r="CA127" t="s" s="10">
-        <v>26</v>
+      <c r="CA127" t="n" s="10">
+        <v>114.8</v>
       </c>
       <c r="CB127" t="s" s="10">
         <v>26</v>
@@ -35578,8 +35578,8 @@
       <c r="BZ128" t="n" s="10">
         <v>117.1</v>
       </c>
-      <c r="CA128" t="s" s="10">
-        <v>26</v>
+      <c r="CA128" t="n" s="10">
+        <v>117.4</v>
       </c>
       <c r="CB128" t="s" s="10">
         <v>26</v>
@@ -35838,8 +35838,8 @@
       <c r="BZ129" t="n" s="10">
         <v>125.9</v>
       </c>
-      <c r="CA129" t="s" s="10">
-        <v>26</v>
+      <c r="CA129" t="n" s="10">
+        <v>132.2</v>
       </c>
       <c r="CB129" t="s" s="10">
         <v>26</v>
@@ -36098,8 +36098,8 @@
       <c r="BZ130" t="n" s="10">
         <v>207.0</v>
       </c>
-      <c r="CA130" t="s" s="10">
-        <v>26</v>
+      <c r="CA130" t="n" s="10">
+        <v>210.9</v>
       </c>
       <c r="CB130" t="s" s="10">
         <v>26</v>
@@ -36358,8 +36358,8 @@
       <c r="BZ131" t="n" s="10">
         <v>164.5</v>
       </c>
-      <c r="CA131" t="s" s="10">
-        <v>26</v>
+      <c r="CA131" t="n" s="10">
+        <v>171.1</v>
       </c>
       <c r="CB131" t="s" s="10">
         <v>26</v>
@@ -36618,8 +36618,8 @@
       <c r="BZ132" t="n" s="10">
         <v>191.4</v>
       </c>
-      <c r="CA132" t="s" s="10">
-        <v>26</v>
+      <c r="CA132" t="n" s="10">
+        <v>196.8</v>
       </c>
       <c r="CB132" t="s" s="10">
         <v>26</v>
@@ -36878,8 +36878,8 @@
       <c r="BZ133" t="n" s="10">
         <v>178.3</v>
       </c>
-      <c r="CA133" t="s" s="10">
-        <v>26</v>
+      <c r="CA133" t="n" s="10">
+        <v>182.0</v>
       </c>
       <c r="CB133" t="s" s="10">
         <v>26</v>
@@ -37138,8 +37138,8 @@
       <c r="BZ134" t="n" s="10">
         <v>184.5</v>
       </c>
-      <c r="CA134" t="s" s="10">
-        <v>26</v>
+      <c r="CA134" t="n" s="10">
+        <v>185.7</v>
       </c>
       <c r="CB134" t="s" s="10">
         <v>26</v>
@@ -37398,8 +37398,8 @@
       <c r="BZ135" t="n" s="10">
         <v>175.7</v>
       </c>
-      <c r="CA135" t="s" s="10">
-        <v>26</v>
+      <c r="CA135" t="n" s="10">
+        <v>182.9</v>
       </c>
       <c r="CB135" t="s" s="10">
         <v>26</v>
@@ -37658,8 +37658,8 @@
       <c r="BZ136" t="n" s="10">
         <v>158.2</v>
       </c>
-      <c r="CA136" t="s" s="10">
-        <v>26</v>
+      <c r="CA136" t="n" s="10">
+        <v>150.0</v>
       </c>
       <c r="CB136" t="s" s="10">
         <v>26</v>
@@ -37918,8 +37918,8 @@
       <c r="BZ137" t="n" s="10">
         <v>153.6</v>
       </c>
-      <c r="CA137" t="s" s="10">
-        <v>26</v>
+      <c r="CA137" t="n" s="10">
+        <v>154.4</v>
       </c>
       <c r="CB137" t="s" s="10">
         <v>26</v>
@@ -38178,8 +38178,8 @@
       <c r="BZ138" t="n" s="10">
         <v>173.8</v>
       </c>
-      <c r="CA138" t="s" s="10">
-        <v>26</v>
+      <c r="CA138" t="n" s="10">
+        <v>160.6</v>
       </c>
       <c r="CB138" t="s" s="10">
         <v>26</v>
@@ -38438,8 +38438,8 @@
       <c r="BZ139" t="n" s="10">
         <v>167.8</v>
       </c>
-      <c r="CA139" t="s" s="10">
-        <v>26</v>
+      <c r="CA139" t="n" s="10">
+        <v>162.8</v>
       </c>
       <c r="CB139" t="s" s="10">
         <v>26</v>
@@ -38698,8 +38698,8 @@
       <c r="BZ140" t="n" s="10">
         <v>123.1</v>
       </c>
-      <c r="CA140" t="s" s="10">
-        <v>26</v>
+      <c r="CA140" t="n" s="10">
+        <v>125.1</v>
       </c>
       <c r="CB140" t="s" s="10">
         <v>26</v>
@@ -38958,8 +38958,8 @@
       <c r="BZ141" t="n" s="10">
         <v>125.4</v>
       </c>
-      <c r="CA141" t="s" s="10">
-        <v>26</v>
+      <c r="CA141" t="n" s="10">
+        <v>128.8</v>
       </c>
       <c r="CB141" t="s" s="10">
         <v>26</v>
@@ -39218,8 +39218,8 @@
       <c r="BZ142" t="n" s="10">
         <v>120.8</v>
       </c>
-      <c r="CA142" t="s" s="10">
-        <v>26</v>
+      <c r="CA142" t="n" s="10">
+        <v>121.8</v>
       </c>
       <c r="CB142" t="s" s="10">
         <v>26</v>
@@ -39478,8 +39478,8 @@
       <c r="BZ143" t="n" s="10">
         <v>114.7</v>
       </c>
-      <c r="CA143" t="s" s="10">
-        <v>26</v>
+      <c r="CA143" t="n" s="10">
+        <v>115.6</v>
       </c>
       <c r="CB143" t="s" s="10">
         <v>26</v>
@@ -39738,8 +39738,8 @@
       <c r="BZ144" t="n" s="10">
         <v>141.1</v>
       </c>
-      <c r="CA144" t="s" s="10">
-        <v>26</v>
+      <c r="CA144" t="n" s="10">
+        <v>140.5</v>
       </c>
       <c r="CB144" t="s" s="10">
         <v>26</v>
@@ -39998,8 +39998,8 @@
       <c r="BZ145" t="n" s="10">
         <v>144.1</v>
       </c>
-      <c r="CA145" t="s" s="10">
-        <v>26</v>
+      <c r="CA145" t="n" s="10">
+        <v>146.5</v>
       </c>
       <c r="CB145" t="s" s="10">
         <v>26</v>
@@ -40258,8 +40258,8 @@
       <c r="BZ146" t="n" s="10">
         <v>129.2</v>
       </c>
-      <c r="CA146" t="s" s="10">
-        <v>26</v>
+      <c r="CA146" t="n" s="10">
+        <v>130.6</v>
       </c>
       <c r="CB146" t="s" s="10">
         <v>26</v>
@@ -40518,8 +40518,8 @@
       <c r="BZ147" t="n" s="10">
         <v>121.9</v>
       </c>
-      <c r="CA147" t="s" s="10">
-        <v>26</v>
+      <c r="CA147" t="n" s="10">
+        <v>123.6</v>
       </c>
       <c r="CB147" t="s" s="10">
         <v>26</v>
@@ -40778,8 +40778,8 @@
       <c r="BZ148" t="n" s="10">
         <v>143.5</v>
       </c>
-      <c r="CA148" t="s" s="10">
-        <v>26</v>
+      <c r="CA148" t="n" s="10">
+        <v>147.0</v>
       </c>
       <c r="CB148" t="s" s="10">
         <v>26</v>
@@ -41038,8 +41038,8 @@
       <c r="BZ149" t="n" s="10">
         <v>121.5</v>
       </c>
-      <c r="CA149" t="s" s="10">
-        <v>26</v>
+      <c r="CA149" t="n" s="10">
+        <v>124.9</v>
       </c>
       <c r="CB149" t="s" s="10">
         <v>26</v>
@@ -41298,8 +41298,8 @@
       <c r="BZ150" t="n" s="10">
         <v>126.5</v>
       </c>
-      <c r="CA150" t="s" s="10">
-        <v>26</v>
+      <c r="CA150" t="n" s="10">
+        <v>128.6</v>
       </c>
       <c r="CB150" t="s" s="10">
         <v>26</v>
@@ -41558,8 +41558,8 @@
       <c r="BZ151" t="n" s="10">
         <v>120.7</v>
       </c>
-      <c r="CA151" t="s" s="10">
-        <v>26</v>
+      <c r="CA151" t="n" s="10">
+        <v>121.6</v>
       </c>
       <c r="CB151" t="s" s="10">
         <v>26</v>
@@ -41818,8 +41818,8 @@
       <c r="BZ152" t="n" s="10">
         <v>117.7</v>
       </c>
-      <c r="CA152" t="s" s="10">
-        <v>26</v>
+      <c r="CA152" t="n" s="10">
+        <v>118.6</v>
       </c>
       <c r="CB152" t="s" s="10">
         <v>26</v>
@@ -42078,8 +42078,8 @@
       <c r="BZ153" t="n" s="10">
         <v>117.8</v>
       </c>
-      <c r="CA153" t="s" s="10">
-        <v>26</v>
+      <c r="CA153" t="n" s="10">
+        <v>117.8</v>
       </c>
       <c r="CB153" t="s" s="10">
         <v>26</v>
@@ -42338,8 +42338,8 @@
       <c r="BZ154" t="n" s="10">
         <v>114.0</v>
       </c>
-      <c r="CA154" t="s" s="10">
-        <v>26</v>
+      <c r="CA154" t="n" s="10">
+        <v>115.6</v>
       </c>
       <c r="CB154" t="s" s="10">
         <v>26</v>
@@ -42598,8 +42598,8 @@
       <c r="BZ155" t="n" s="10">
         <v>112.2</v>
       </c>
-      <c r="CA155" t="s" s="10">
-        <v>26</v>
+      <c r="CA155" t="n" s="10">
+        <v>113.3</v>
       </c>
       <c r="CB155" t="s" s="10">
         <v>26</v>
@@ -42858,8 +42858,8 @@
       <c r="BZ156" t="n" s="10">
         <v>147.1</v>
       </c>
-      <c r="CA156" t="s" s="10">
-        <v>26</v>
+      <c r="CA156" t="n" s="10">
+        <v>150.5</v>
       </c>
       <c r="CB156" t="s" s="10">
         <v>26</v>
@@ -43118,8 +43118,8 @@
       <c r="BZ157" t="n" s="10">
         <v>133.1</v>
       </c>
-      <c r="CA157" t="s" s="10">
-        <v>26</v>
+      <c r="CA157" t="n" s="10">
+        <v>134.2</v>
       </c>
       <c r="CB157" t="s" s="10">
         <v>26</v>
@@ -43378,8 +43378,8 @@
       <c r="BZ158" t="n" s="10">
         <v>138.9</v>
       </c>
-      <c r="CA158" t="s" s="10">
-        <v>26</v>
+      <c r="CA158" t="n" s="10">
+        <v>144.7</v>
       </c>
       <c r="CB158" t="s" s="10">
         <v>26</v>
@@ -43638,8 +43638,8 @@
       <c r="BZ159" t="n" s="10">
         <v>120.5</v>
       </c>
-      <c r="CA159" t="s" s="10">
-        <v>26</v>
+      <c r="CA159" t="n" s="10">
+        <v>122.5</v>
       </c>
       <c r="CB159" t="s" s="10">
         <v>26</v>
@@ -43898,8 +43898,8 @@
       <c r="BZ160" t="n" s="10">
         <v>131.1</v>
       </c>
-      <c r="CA160" t="s" s="10">
-        <v>26</v>
+      <c r="CA160" t="n" s="10">
+        <v>132.8</v>
       </c>
       <c r="CB160" t="s" s="10">
         <v>26</v>
@@ -44158,8 +44158,8 @@
       <c r="BZ161" t="n" s="10">
         <v>82.8</v>
       </c>
-      <c r="CA161" t="s" s="10">
-        <v>26</v>
+      <c r="CA161" t="n" s="10">
+        <v>83.5</v>
       </c>
       <c r="CB161" t="s" s="10">
         <v>26</v>
@@ -44418,8 +44418,8 @@
       <c r="BZ162" t="n" s="10">
         <v>92.9</v>
       </c>
-      <c r="CA162" t="s" s="10">
-        <v>26</v>
+      <c r="CA162" t="n" s="10">
+        <v>93.3</v>
       </c>
       <c r="CB162" t="s" s="10">
         <v>26</v>
@@ -44678,8 +44678,8 @@
       <c r="BZ163" t="n" s="10">
         <v>91.9</v>
       </c>
-      <c r="CA163" t="s" s="10">
-        <v>26</v>
+      <c r="CA163" t="n" s="10">
+        <v>92.6</v>
       </c>
       <c r="CB163" t="s" s="10">
         <v>26</v>
@@ -44938,8 +44938,8 @@
       <c r="BZ164" t="n" s="10">
         <v>102.1</v>
       </c>
-      <c r="CA164" t="s" s="10">
-        <v>26</v>
+      <c r="CA164" t="n" s="10">
+        <v>102.3</v>
       </c>
       <c r="CB164" t="s" s="10">
         <v>26</v>
@@ -45198,8 +45198,8 @@
       <c r="BZ165" t="n" s="10">
         <v>107.4</v>
       </c>
-      <c r="CA165" t="s" s="10">
-        <v>26</v>
+      <c r="CA165" t="n" s="10">
+        <v>107.5</v>
       </c>
       <c r="CB165" t="s" s="10">
         <v>26</v>
@@ -45458,8 +45458,8 @@
       <c r="BZ166" t="n" s="10">
         <v>111.6</v>
       </c>
-      <c r="CA166" t="s" s="10">
-        <v>26</v>
+      <c r="CA166" t="n" s="10">
+        <v>112.3</v>
       </c>
       <c r="CB166" t="s" s="10">
         <v>26</v>
@@ -45718,8 +45718,8 @@
       <c r="BZ167" t="n" s="10">
         <v>115.7</v>
       </c>
-      <c r="CA167" t="s" s="10">
-        <v>26</v>
+      <c r="CA167" t="n" s="10">
+        <v>117.8</v>
       </c>
       <c r="CB167" t="s" s="10">
         <v>26</v>
@@ -45978,8 +45978,8 @@
       <c r="BZ168" t="n" s="10">
         <v>101.2</v>
       </c>
-      <c r="CA168" t="s" s="10">
-        <v>26</v>
+      <c r="CA168" t="n" s="10">
+        <v>101.2</v>
       </c>
       <c r="CB168" t="s" s="10">
         <v>26</v>
@@ -46238,8 +46238,8 @@
       <c r="BZ169" t="n" s="10">
         <v>107.5</v>
       </c>
-      <c r="CA169" t="s" s="10">
-        <v>26</v>
+      <c r="CA169" t="n" s="10">
+        <v>108.0</v>
       </c>
       <c r="CB169" t="s" s="10">
         <v>26</v>
@@ -46498,8 +46498,8 @@
       <c r="BZ170" t="n" s="10">
         <v>118.2</v>
       </c>
-      <c r="CA170" t="s" s="10">
-        <v>26</v>
+      <c r="CA170" t="n" s="10">
+        <v>118.9</v>
       </c>
       <c r="CB170" t="s" s="10">
         <v>26</v>
@@ -46758,8 +46758,8 @@
       <c r="BZ171" t="n" s="10">
         <v>115.6</v>
       </c>
-      <c r="CA171" t="s" s="10">
-        <v>26</v>
+      <c r="CA171" t="n" s="10">
+        <v>117.5</v>
       </c>
       <c r="CB171" t="s" s="10">
         <v>26</v>
@@ -47018,8 +47018,8 @@
       <c r="BZ172" t="n" s="10">
         <v>114.2</v>
       </c>
-      <c r="CA172" t="s" s="10">
-        <v>26</v>
+      <c r="CA172" t="n" s="10">
+        <v>115.5</v>
       </c>
       <c r="CB172" t="s" s="10">
         <v>26</v>
@@ -47278,8 +47278,8 @@
       <c r="BZ173" t="n" s="10">
         <v>137.5</v>
       </c>
-      <c r="CA173" t="s" s="10">
-        <v>26</v>
+      <c r="CA173" t="n" s="10">
+        <v>138.5</v>
       </c>
       <c r="CB173" t="s" s="10">
         <v>26</v>
@@ -47538,8 +47538,8 @@
       <c r="BZ174" t="n" s="10">
         <v>118.7</v>
       </c>
-      <c r="CA174" t="s" s="10">
-        <v>26</v>
+      <c r="CA174" t="n" s="10">
+        <v>119.5</v>
       </c>
       <c r="CB174" t="s" s="10">
         <v>26</v>
@@ -47798,8 +47798,8 @@
       <c r="BZ175" t="n" s="10">
         <v>106.9</v>
       </c>
-      <c r="CA175" t="s" s="10">
-        <v>26</v>
+      <c r="CA175" t="n" s="10">
+        <v>107.4</v>
       </c>
       <c r="CB175" t="s" s="10">
         <v>26</v>
@@ -48058,8 +48058,8 @@
       <c r="BZ176" t="n" s="10">
         <v>114.4</v>
       </c>
-      <c r="CA176" t="s" s="10">
-        <v>26</v>
+      <c r="CA176" t="n" s="10">
+        <v>115.2</v>
       </c>
       <c r="CB176" t="s" s="10">
         <v>26</v>
@@ -48318,8 +48318,8 @@
       <c r="BZ177" t="n" s="10">
         <v>124.3</v>
       </c>
-      <c r="CA177" t="s" s="10">
-        <v>26</v>
+      <c r="CA177" t="n" s="10">
+        <v>125.4</v>
       </c>
       <c r="CB177" t="s" s="10">
         <v>26</v>
@@ -48578,8 +48578,8 @@
       <c r="BZ178" t="n" s="10">
         <v>111.5</v>
       </c>
-      <c r="CA178" t="s" s="10">
-        <v>26</v>
+      <c r="CA178" t="n" s="10">
+        <v>111.3</v>
       </c>
       <c r="CB178" t="s" s="10">
         <v>26</v>
@@ -48838,8 +48838,8 @@
       <c r="BZ179" t="n" s="10">
         <v>108.5</v>
       </c>
-      <c r="CA179" t="s" s="10">
-        <v>26</v>
+      <c r="CA179" t="n" s="10">
+        <v>109.7</v>
       </c>
       <c r="CB179" t="s" s="10">
         <v>26</v>
@@ -49098,8 +49098,8 @@
       <c r="BZ180" t="n" s="10">
         <v>112.4</v>
       </c>
-      <c r="CA180" t="s" s="10">
-        <v>26</v>
+      <c r="CA180" t="n" s="10">
+        <v>112.3</v>
       </c>
       <c r="CB180" t="s" s="10">
         <v>26</v>
@@ -49358,8 +49358,8 @@
       <c r="BZ181" t="n" s="10">
         <v>114.0</v>
       </c>
-      <c r="CA181" t="s" s="10">
-        <v>26</v>
+      <c r="CA181" t="n" s="10">
+        <v>115.1</v>
       </c>
       <c r="CB181" t="s" s="10">
         <v>26</v>
@@ -49618,8 +49618,8 @@
       <c r="BZ182" t="n" s="10">
         <v>124.7</v>
       </c>
-      <c r="CA182" t="s" s="10">
-        <v>26</v>
+      <c r="CA182" t="n" s="10">
+        <v>125.1</v>
       </c>
       <c r="CB182" t="s" s="10">
         <v>26</v>
@@ -49878,8 +49878,8 @@
       <c r="BZ183" t="n" s="10">
         <v>112.9</v>
       </c>
-      <c r="CA183" t="s" s="10">
-        <v>26</v>
+      <c r="CA183" t="n" s="10">
+        <v>113.3</v>
       </c>
       <c r="CB183" t="s" s="10">
         <v>26</v>
@@ -50138,8 +50138,8 @@
       <c r="BZ184" t="n" s="10">
         <v>116.4</v>
       </c>
-      <c r="CA184" t="s" s="10">
-        <v>26</v>
+      <c r="CA184" t="n" s="10">
+        <v>117.3</v>
       </c>
       <c r="CB184" t="s" s="10">
         <v>26</v>
@@ -50398,8 +50398,8 @@
       <c r="BZ185" t="n" s="10">
         <v>122.6</v>
       </c>
-      <c r="CA185" t="s" s="10">
-        <v>26</v>
+      <c r="CA185" t="n" s="10">
+        <v>124.5</v>
       </c>
       <c r="CB185" t="s" s="10">
         <v>26</v>
@@ -50658,8 +50658,8 @@
       <c r="BZ186" t="n" s="10">
         <v>104.9</v>
       </c>
-      <c r="CA186" t="s" s="10">
-        <v>26</v>
+      <c r="CA186" t="n" s="10">
+        <v>107.7</v>
       </c>
       <c r="CB186" t="s" s="10">
         <v>26</v>
@@ -50918,8 +50918,8 @@
       <c r="BZ187" t="n" s="10">
         <v>113.9</v>
       </c>
-      <c r="CA187" t="s" s="10">
-        <v>26</v>
+      <c r="CA187" t="n" s="10">
+        <v>114.0</v>
       </c>
       <c r="CB187" t="s" s="10">
         <v>26</v>
@@ -51178,8 +51178,8 @@
       <c r="BZ188" t="n" s="10">
         <v>115.6</v>
       </c>
-      <c r="CA188" t="s" s="10">
-        <v>26</v>
+      <c r="CA188" t="n" s="10">
+        <v>116.4</v>
       </c>
       <c r="CB188" t="s" s="10">
         <v>26</v>
@@ -51438,8 +51438,8 @@
       <c r="BZ189" t="n" s="10">
         <v>114.9</v>
       </c>
-      <c r="CA189" t="s" s="10">
-        <v>26</v>
+      <c r="CA189" t="n" s="10">
+        <v>116.2</v>
       </c>
       <c r="CB189" t="s" s="10">
         <v>26</v>
@@ -51698,8 +51698,8 @@
       <c r="BZ190" t="n" s="10">
         <v>123.4</v>
       </c>
-      <c r="CA190" t="s" s="10">
-        <v>26</v>
+      <c r="CA190" t="n" s="10">
+        <v>124.9</v>
       </c>
       <c r="CB190" t="s" s="10">
         <v>26</v>
@@ -51958,8 +51958,8 @@
       <c r="BZ191" t="n" s="10">
         <v>115.6</v>
       </c>
-      <c r="CA191" t="s" s="10">
-        <v>26</v>
+      <c r="CA191" t="n" s="10">
+        <v>116.3</v>
       </c>
       <c r="CB191" t="s" s="10">
         <v>26</v>
@@ -52218,8 +52218,8 @@
       <c r="BZ192" t="n" s="10">
         <v>121.7</v>
       </c>
-      <c r="CA192" t="s" s="10">
-        <v>26</v>
+      <c r="CA192" t="n" s="10">
+        <v>122.3</v>
       </c>
       <c r="CB192" t="s" s="10">
         <v>26</v>
@@ -52478,8 +52478,8 @@
       <c r="BZ193" t="n" s="10">
         <v>119.0</v>
       </c>
-      <c r="CA193" t="s" s="10">
-        <v>26</v>
+      <c r="CA193" t="n" s="10">
+        <v>119.0</v>
       </c>
       <c r="CB193" t="s" s="10">
         <v>26</v>
@@ -52738,8 +52738,8 @@
       <c r="BZ194" t="n" s="10">
         <v>117.4</v>
       </c>
-      <c r="CA194" t="s" s="10">
-        <v>26</v>
+      <c r="CA194" t="n" s="10">
+        <v>117.8</v>
       </c>
       <c r="CB194" t="s" s="10">
         <v>26</v>
@@ -52998,8 +52998,8 @@
       <c r="BZ195" t="n" s="10">
         <v>116.0</v>
       </c>
-      <c r="CA195" t="s" s="10">
-        <v>26</v>
+      <c r="CA195" t="n" s="10">
+        <v>116.6</v>
       </c>
       <c r="CB195" t="s" s="10">
         <v>26</v>
@@ -53258,8 +53258,8 @@
       <c r="BZ196" t="n" s="10">
         <v>114.9</v>
       </c>
-      <c r="CA196" t="s" s="10">
-        <v>26</v>
+      <c r="CA196" t="n" s="10">
+        <v>116.2</v>
       </c>
       <c r="CB196" t="s" s="10">
         <v>26</v>
@@ -53518,8 +53518,8 @@
       <c r="BZ197" t="n" s="10">
         <v>116.5</v>
       </c>
-      <c r="CA197" t="s" s="10">
-        <v>26</v>
+      <c r="CA197" t="n" s="10">
+        <v>117.2</v>
       </c>
       <c r="CB197" t="s" s="10">
         <v>26</v>
@@ -53778,8 +53778,8 @@
       <c r="BZ198" t="n" s="10">
         <v>116.4</v>
       </c>
-      <c r="CA198" t="s" s="10">
-        <v>26</v>
+      <c r="CA198" t="n" s="10">
+        <v>117.1</v>
       </c>
       <c r="CB198" t="s" s="10">
         <v>26</v>
@@ -54038,8 +54038,8 @@
       <c r="BZ199" t="n" s="10">
         <v>113.0</v>
       </c>
-      <c r="CA199" t="s" s="10">
-        <v>26</v>
+      <c r="CA199" t="n" s="10">
+        <v>114.5</v>
       </c>
       <c r="CB199" t="s" s="10">
         <v>26</v>
@@ -54298,8 +54298,8 @@
       <c r="BZ200" t="n" s="10">
         <v>111.1</v>
       </c>
-      <c r="CA200" t="s" s="10">
-        <v>26</v>
+      <c r="CA200" t="n" s="10">
+        <v>111.3</v>
       </c>
       <c r="CB200" t="s" s="10">
         <v>26</v>
@@ -54558,8 +54558,8 @@
       <c r="BZ201" t="n" s="10">
         <v>119.1</v>
       </c>
-      <c r="CA201" t="s" s="10">
-        <v>26</v>
+      <c r="CA201" t="n" s="10">
+        <v>119.8</v>
       </c>
       <c r="CB201" t="s" s="10">
         <v>26</v>
@@ -54818,8 +54818,8 @@
       <c r="BZ202" t="n" s="10">
         <v>105.3</v>
       </c>
-      <c r="CA202" t="s" s="10">
-        <v>26</v>
+      <c r="CA202" t="n" s="10">
+        <v>105.5</v>
       </c>
       <c r="CB202" t="s" s="10">
         <v>26</v>
@@ -55078,8 +55078,8 @@
       <c r="BZ203" t="n" s="10">
         <v>106.8</v>
       </c>
-      <c r="CA203" t="s" s="10">
-        <v>26</v>
+      <c r="CA203" t="n" s="10">
+        <v>106.8</v>
       </c>
       <c r="CB203" t="s" s="10">
         <v>26</v>
@@ -55338,8 +55338,8 @@
       <c r="BZ204" t="n" s="10">
         <v>108.6</v>
       </c>
-      <c r="CA204" t="s" s="10">
-        <v>26</v>
+      <c r="CA204" t="n" s="10">
+        <v>108.7</v>
       </c>
       <c r="CB204" t="s" s="10">
         <v>26</v>
@@ -55598,8 +55598,8 @@
       <c r="BZ205" t="n" s="10">
         <v>110.3</v>
       </c>
-      <c r="CA205" t="s" s="10">
-        <v>26</v>
+      <c r="CA205" t="n" s="10">
+        <v>110.4</v>
       </c>
       <c r="CB205" t="s" s="10">
         <v>26</v>
@@ -55858,8 +55858,8 @@
       <c r="BZ206" t="n" s="10">
         <v>116.9</v>
       </c>
-      <c r="CA206" t="s" s="10">
-        <v>26</v>
+      <c r="CA206" t="n" s="10">
+        <v>117.2</v>
       </c>
       <c r="CB206" t="s" s="10">
         <v>26</v>
@@ -56118,8 +56118,8 @@
       <c r="BZ207" t="n" s="10">
         <v>118.6</v>
       </c>
-      <c r="CA207" t="s" s="10">
-        <v>26</v>
+      <c r="CA207" t="n" s="10">
+        <v>124.9</v>
       </c>
       <c r="CB207" t="s" s="10">
         <v>26</v>
@@ -56378,8 +56378,8 @@
       <c r="BZ208" t="n" s="10">
         <v>119.5</v>
       </c>
-      <c r="CA208" t="s" s="10">
-        <v>26</v>
+      <c r="CA208" t="n" s="10">
+        <v>120.7</v>
       </c>
       <c r="CB208" t="s" s="10">
         <v>26</v>
@@ -56638,8 +56638,8 @@
       <c r="BZ209" t="n" s="10">
         <v>118.4</v>
       </c>
-      <c r="CA209" t="s" s="10">
-        <v>26</v>
+      <c r="CA209" t="n" s="10">
+        <v>119.6</v>
       </c>
       <c r="CB209" t="s" s="10">
         <v>26</v>
@@ -56898,8 +56898,8 @@
       <c r="BZ210" t="n" s="10">
         <v>116.6</v>
       </c>
-      <c r="CA210" t="s" s="10">
-        <v>26</v>
+      <c r="CA210" t="n" s="10">
+        <v>119.7</v>
       </c>
       <c r="CB210" t="s" s="10">
         <v>26</v>
@@ -57158,8 +57158,8 @@
       <c r="BZ211" t="n" s="10">
         <v>121.7</v>
       </c>
-      <c r="CA211" t="s" s="10">
-        <v>26</v>
+      <c r="CA211" t="n" s="10">
+        <v>125.6</v>
       </c>
       <c r="CB211" t="s" s="10">
         <v>26</v>
@@ -57418,8 +57418,8 @@
       <c r="BZ212" t="n" s="10">
         <v>127.6</v>
       </c>
-      <c r="CA212" t="s" s="10">
-        <v>26</v>
+      <c r="CA212" t="n" s="10">
+        <v>128.5</v>
       </c>
       <c r="CB212" t="s" s="10">
         <v>26</v>
@@ -57678,8 +57678,8 @@
       <c r="BZ213" t="n" s="10">
         <v>138.8</v>
       </c>
-      <c r="CA213" t="s" s="10">
-        <v>26</v>
+      <c r="CA213" t="n" s="10">
+        <v>142.4</v>
       </c>
       <c r="CB213" t="s" s="10">
         <v>26</v>
@@ -57938,8 +57938,8 @@
       <c r="BZ214" t="n" s="10">
         <v>128.7</v>
       </c>
-      <c r="CA214" t="s" s="10">
-        <v>26</v>
+      <c r="CA214" t="n" s="10">
+        <v>128.7</v>
       </c>
       <c r="CB214" t="s" s="10">
         <v>26</v>
@@ -58198,8 +58198,8 @@
       <c r="BZ215" t="n" s="10">
         <v>124.0</v>
       </c>
-      <c r="CA215" t="s" s="10">
-        <v>26</v>
+      <c r="CA215" t="n" s="10">
+        <v>124.7</v>
       </c>
       <c r="CB215" t="s" s="10">
         <v>26</v>
@@ -58458,8 +58458,8 @@
       <c r="BZ216" t="n" s="10">
         <v>113.6</v>
       </c>
-      <c r="CA216" t="s" s="10">
-        <v>26</v>
+      <c r="CA216" t="n" s="10">
+        <v>113.7</v>
       </c>
       <c r="CB216" t="s" s="10">
         <v>26</v>
@@ -58718,8 +58718,8 @@
       <c r="BZ217" t="n" s="10">
         <v>110.8</v>
       </c>
-      <c r="CA217" t="s" s="10">
-        <v>26</v>
+      <c r="CA217" t="n" s="10">
+        <v>111.2</v>
       </c>
       <c r="CB217" t="s" s="10">
         <v>26</v>
@@ -58978,8 +58978,8 @@
       <c r="BZ218" t="n" s="10">
         <v>107.3</v>
       </c>
-      <c r="CA218" t="s" s="10">
-        <v>26</v>
+      <c r="CA218" t="n" s="10">
+        <v>107.3</v>
       </c>
       <c r="CB218" t="s" s="10">
         <v>26</v>
@@ -59238,8 +59238,8 @@
       <c r="BZ219" t="n" s="10">
         <v>120.3</v>
       </c>
-      <c r="CA219" t="s" s="10">
-        <v>26</v>
+      <c r="CA219" t="n" s="10">
+        <v>121.6</v>
       </c>
       <c r="CB219" t="s" s="10">
         <v>26</v>
@@ -59498,8 +59498,8 @@
       <c r="BZ220" t="n" s="10">
         <v>117.3</v>
       </c>
-      <c r="CA220" t="s" s="10">
-        <v>26</v>
+      <c r="CA220" t="n" s="10">
+        <v>117.6</v>
       </c>
       <c r="CB220" t="s" s="10">
         <v>26</v>
@@ -59758,8 +59758,8 @@
       <c r="BZ221" t="n" s="10">
         <v>119.6</v>
       </c>
-      <c r="CA221" t="s" s="10">
-        <v>26</v>
+      <c r="CA221" t="n" s="10">
+        <v>120.5</v>
       </c>
       <c r="CB221" t="s" s="10">
         <v>26</v>
@@ -60018,8 +60018,8 @@
       <c r="BZ222" t="n" s="10">
         <v>114.3</v>
       </c>
-      <c r="CA222" t="s" s="10">
-        <v>26</v>
+      <c r="CA222" t="n" s="10">
+        <v>114.6</v>
       </c>
       <c r="CB222" t="s" s="10">
         <v>26</v>
@@ -60278,8 +60278,8 @@
       <c r="BZ223" t="n" s="10">
         <v>114.2</v>
       </c>
-      <c r="CA223" t="s" s="10">
-        <v>26</v>
+      <c r="CA223" t="n" s="10">
+        <v>114.9</v>
       </c>
       <c r="CB223" t="s" s="10">
         <v>26</v>
@@ -60538,8 +60538,8 @@
       <c r="BZ224" t="n" s="10">
         <v>116.0</v>
       </c>
-      <c r="CA224" t="s" s="10">
-        <v>26</v>
+      <c r="CA224" t="n" s="10">
+        <v>116.0</v>
       </c>
       <c r="CB224" t="s" s="10">
         <v>26</v>
@@ -60798,8 +60798,8 @@
       <c r="BZ225" t="n" s="10">
         <v>121.6</v>
       </c>
-      <c r="CA225" t="s" s="10">
-        <v>26</v>
+      <c r="CA225" t="n" s="10">
+        <v>121.6</v>
       </c>
       <c r="CB225" t="s" s="10">
         <v>26</v>
@@ -61058,8 +61058,8 @@
       <c r="BZ226" t="n" s="10">
         <v>119.9</v>
       </c>
-      <c r="CA226" t="s" s="10">
-        <v>26</v>
+      <c r="CA226" t="n" s="10">
+        <v>120.3</v>
       </c>
       <c r="CB226" t="s" s="10">
         <v>26</v>
@@ -61318,8 +61318,8 @@
       <c r="BZ227" t="n" s="10">
         <v>117.6</v>
       </c>
-      <c r="CA227" t="s" s="10">
-        <v>26</v>
+      <c r="CA227" t="n" s="10">
+        <v>119.2</v>
       </c>
       <c r="CB227" t="s" s="10">
         <v>26</v>
@@ -61578,8 +61578,8 @@
       <c r="BZ228" t="n" s="10">
         <v>118.6</v>
       </c>
-      <c r="CA228" t="s" s="10">
-        <v>26</v>
+      <c r="CA228" t="n" s="10">
+        <v>119.1</v>
       </c>
       <c r="CB228" t="s" s="10">
         <v>26</v>
@@ -61838,8 +61838,8 @@
       <c r="BZ229" t="n" s="10">
         <v>237.6</v>
       </c>
-      <c r="CA229" t="s" s="10">
-        <v>26</v>
+      <c r="CA229" t="n" s="10">
+        <v>247.0</v>
       </c>
       <c r="CB229" t="s" s="10">
         <v>26</v>
@@ -62098,8 +62098,8 @@
       <c r="BZ230" t="n" s="10">
         <v>187.4</v>
       </c>
-      <c r="CA230" t="s" s="10">
-        <v>26</v>
+      <c r="CA230" t="n" s="10">
+        <v>187.4</v>
       </c>
       <c r="CB230" t="s" s="10">
         <v>26</v>
@@ -62358,8 +62358,8 @@
       <c r="BZ231" t="n" s="10">
         <v>144.1</v>
       </c>
-      <c r="CA231" t="s" s="10">
-        <v>26</v>
+      <c r="CA231" t="n" s="10">
+        <v>144.1</v>
       </c>
       <c r="CB231" t="s" s="10">
         <v>26</v>
@@ -62618,8 +62618,8 @@
       <c r="BZ232" t="n" s="10">
         <v>126.8</v>
       </c>
-      <c r="CA232" t="s" s="10">
-        <v>26</v>
+      <c r="CA232" t="n" s="10">
+        <v>126.8</v>
       </c>
       <c r="CB232" t="s" s="10">
         <v>26</v>
@@ -62878,8 +62878,8 @@
       <c r="BZ233" t="n" s="10">
         <v>217.6</v>
       </c>
-      <c r="CA233" t="s" s="10">
-        <v>26</v>
+      <c r="CA233" t="n" s="10">
+        <v>223.0</v>
       </c>
       <c r="CB233" t="s" s="10">
         <v>26</v>
@@ -63138,8 +63138,8 @@
       <c r="BZ234" t="n" s="10">
         <v>119.0</v>
       </c>
-      <c r="CA234" t="s" s="10">
-        <v>26</v>
+      <c r="CA234" t="n" s="10">
+        <v>119.8</v>
       </c>
       <c r="CB234" t="s" s="10">
         <v>26</v>
@@ -63398,8 +63398,8 @@
       <c r="BZ235" t="n" s="10">
         <v>112.7</v>
       </c>
-      <c r="CA235" t="s" s="10">
-        <v>26</v>
+      <c r="CA235" t="n" s="10">
+        <v>113.0</v>
       </c>
       <c r="CB235" t="s" s="10">
         <v>26</v>
@@ -63658,8 +63658,8 @@
       <c r="BZ236" t="n" s="10">
         <v>236.8</v>
       </c>
-      <c r="CA236" t="s" s="10">
-        <v>26</v>
+      <c r="CA236" t="n" s="10">
+        <v>228.5</v>
       </c>
       <c r="CB236" t="s" s="10">
         <v>26</v>
@@ -63710,7 +63710,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:40:46&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:51:59&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>